--- a/drafts/CRM-schema.xlsx
+++ b/drafts/CRM-schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="quoteCollection" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="151">
   <si>
     <t>Your name, please? *</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t xml:space="preserve"> "send me a quote that will meet my requirements",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "sending the standard response"</t>
   </si>
   <si>
     <t>"5000",</t>
@@ -488,6 +485,51 @@
   </si>
   <si>
     <t>"50000",</t>
+  </si>
+  <si>
+    <t>assignedTo:</t>
+  </si>
+  <si>
+    <t>levelQuality:</t>
+  </si>
+  <si>
+    <t>quoteCost:</t>
+  </si>
+  <si>
+    <t>quoteNeeds:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "sending the standard response",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "3",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "4",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "5",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "6",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "7",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "8",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "9",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "10",</t>
   </si>
 </sst>
 </file>
@@ -600,7 +642,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="194">
+  <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -733,6 +775,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -830,7 +911,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="194">
+  <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -958,6 +1039,45 @@
     <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1375,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="57" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>36</v>
@@ -1393,15 +1513,15 @@
         <v>47</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
@@ -1410,16 +1530,16 @@
         <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="57" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1433,10 +1553,10 @@
     </row>
     <row r="4" spans="1:14" ht="57" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -1445,15 +1565,15 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="57" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -1462,15 +1582,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="57" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1479,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -1488,10 +1608,10 @@
     </row>
     <row r="7" spans="1:14" ht="57" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1509,10 +1629,10 @@
     </row>
     <row r="8" spans="1:14" ht="57" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -1530,16 +1650,16 @@
     </row>
     <row r="9" spans="1:14" ht="57" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
@@ -1559,10 +1679,10 @@
     </row>
     <row r="10" spans="1:14" ht="57" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -1577,10 +1697,10 @@
     </row>
     <row r="11" spans="1:14" ht="57" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
@@ -1595,10 +1715,10 @@
     </row>
     <row r="12" spans="1:14" ht="57" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -1615,10 +1735,10 @@
     </row>
     <row r="13" spans="1:14" ht="57" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -1632,10 +1752,10 @@
     </row>
     <row r="14" spans="1:14" ht="57" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>40</v>
@@ -1664,10 +1784,10 @@
     </row>
     <row r="15" spans="1:14" ht="57" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>40</v>
@@ -1702,134 +1822,134 @@
     </row>
     <row r="16" spans="1:14" ht="57" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
         <v>103</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>104</v>
-      </c>
-      <c r="I16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="57" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="57" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="57" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="57" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="57" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
         <v>103</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>104</v>
-      </c>
-      <c r="I22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="57" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -1891,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1977,81 +2097,81 @@
     </row>
     <row r="2" spans="1:24" ht="17">
       <c r="A2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2">
-        <v>102</v>
-      </c>
-      <c r="E2" s="2">
-        <v>103</v>
-      </c>
-      <c r="F2" s="2">
-        <v>104</v>
-      </c>
-      <c r="G2" s="2">
-        <v>105</v>
-      </c>
-      <c r="H2" s="2">
-        <v>106</v>
-      </c>
-      <c r="I2" s="2">
-        <v>107</v>
-      </c>
-      <c r="J2" s="2">
-        <v>108</v>
-      </c>
-      <c r="K2" s="2">
-        <v>109</v>
-      </c>
-      <c r="L2" s="2">
-        <v>110</v>
-      </c>
-      <c r="M2" s="2">
-        <v>111</v>
-      </c>
-      <c r="N2" s="2">
-        <v>112</v>
-      </c>
-      <c r="O2" s="2">
-        <v>113</v>
-      </c>
-      <c r="P2" s="2">
-        <v>114</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>115</v>
-      </c>
-      <c r="R2" s="2">
-        <v>116</v>
-      </c>
-      <c r="S2" s="2">
-        <v>117</v>
-      </c>
-      <c r="T2" s="2">
-        <v>118</v>
-      </c>
-      <c r="U2" s="2">
-        <v>119</v>
-      </c>
-      <c r="V2" s="2">
-        <v>120</v>
-      </c>
-      <c r="W2" s="2">
-        <v>121</v>
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="31">
       <c r="A3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>53</v>
@@ -2119,7 +2239,7 @@
     </row>
     <row r="4" spans="1:24" ht="46">
       <c r="A4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>56</v>
@@ -2190,7 +2310,7 @@
     </row>
     <row r="5" spans="1:24" ht="31">
       <c r="A5" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>57</v>
@@ -2261,291 +2381,291 @@
     </row>
     <row r="6" spans="1:24" ht="17">
       <c r="A6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17">
       <c r="A7" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="O7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="17">
       <c r="A8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="31">
       <c r="A9" s="12" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="L9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="N9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="T9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="V9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="31">
       <c r="A10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>58</v>
@@ -2616,7 +2736,7 @@
     </row>
     <row r="11" spans="1:24" ht="31">
       <c r="A11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>58</v>
@@ -2687,363 +2807,363 @@
     </row>
     <row r="12" spans="1:24" ht="17">
       <c r="A12" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="N12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="71" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="N13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="106">
       <c r="A14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="N14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="P14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="31">
       <c r="A15" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="K15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="V15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17">
       <c r="A16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="L16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="N16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="T16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>61</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:23" ht="91">
       <c r="A17" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>62</v>
@@ -3114,357 +3234,357 @@
     </row>
     <row r="18" spans="1:23" ht="61">
       <c r="A18" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17">
       <c r="A19" s="11" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="23" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="76">
       <c r="A21" s="11" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3497,12 +3617,12 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="109.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" customWidth="1"/>
@@ -3601,91 +3721,91 @@
     <row r="2" spans="1:22">
       <c r="A2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!B2,"',")</f>
-        <v>quoteId:'100',</v>
+        <v>quoteId:' "1",',</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!C2,"',")</f>
-        <v>quoteId:'100',</v>
+        <v>quoteId:' "2",',</v>
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!D2,"',")</f>
-        <v>quoteId:'102',</v>
+        <v>quoteId:' "3",',</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!E2,"',")</f>
-        <v>quoteId:'103',</v>
+        <v>quoteId:' "4",',</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!F2,"',")</f>
-        <v>quoteId:'104',</v>
+        <v>quoteId:' "5",',</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!G2,"',")</f>
-        <v>quoteId:'105',</v>
+        <v>quoteId:' "6",',</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!H2,"',")</f>
-        <v>quoteId:'106',</v>
+        <v>quoteId:' "7",',</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!I2,"',")</f>
-        <v>quoteId:'107',</v>
+        <v>quoteId:' "8",',</v>
       </c>
       <c r="I2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!J2,"',")</f>
-        <v>quoteId:'108',</v>
+        <v>quoteId:' "9",',</v>
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!K2,"',")</f>
-        <v>quoteId:'109',</v>
+        <v>quoteId:' "10",',</v>
       </c>
       <c r="K2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!L2,"',")</f>
-        <v>quoteId:'110',</v>
+        <v>quoteId:' "1",',</v>
       </c>
       <c r="L2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!M2,"',")</f>
-        <v>quoteId:'111',</v>
+        <v>quoteId:' "1",',</v>
       </c>
       <c r="M2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!N2,"',")</f>
-        <v>quoteId:'112',</v>
+        <v>quoteId:' "1",',</v>
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!O2,"',")</f>
-        <v>quoteId:'113',</v>
+        <v>quoteId:' "1",',</v>
       </c>
       <c r="O2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!P2,"',")</f>
-        <v>quoteId:'114',</v>
+        <v>quoteId:' "1",',</v>
       </c>
       <c r="P2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!Q2,"',")</f>
-        <v>quoteId:'115',</v>
+        <v>quoteId:' "1",',</v>
       </c>
       <c r="Q2" t="str">
         <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!R2,"',")</f>
-        <v>quoteId:'116',</v>
+        <v>quoteId:' "1",',</v>
       </c>
       <c r="R2" t="str">
         <f>CONCATENATE(Sheet3!$A2,Sheet3!S2)</f>
-        <v>quoteId:117</v>
+        <v>quoteId: "1",</v>
       </c>
       <c r="S2" t="str">
         <f>CONCATENATE(Sheet3!$A2,Sheet3!T2)</f>
-        <v>quoteId:118</v>
+        <v>quoteId: "1",</v>
       </c>
       <c r="T2" t="str">
         <f>CONCATENATE(Sheet3!$A2,Sheet3!U2)</f>
-        <v>quoteId:119</v>
+        <v>quoteId: "1",</v>
       </c>
       <c r="U2" t="str">
         <f>CONCATENATE(Sheet3!$A2,Sheet3!V2)</f>
-        <v>quoteId:120</v>
+        <v>quoteId: "1",</v>
       </c>
       <c r="V2" t="str">
         <f>CONCATENATE(Sheet3!$A2,Sheet3!W2)</f>
-        <v>quoteId:121</v>
+        <v>quoteId: "1",</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -4231,91 +4351,91 @@
     <row r="9" spans="1:22">
       <c r="A9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!B9)</f>
-        <v>levelQuality"Bike",</v>
+        <v>levelQuality:"Bike",</v>
       </c>
       <c r="B9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!C9)</f>
-        <v>levelQuality"Car",</v>
+        <v>levelQuality:"Car",</v>
       </c>
       <c r="C9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!D9)</f>
-        <v>levelQuality"Jumbo Jet",</v>
+        <v>levelQuality:"Jumbo Jet",</v>
       </c>
       <c r="D9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!E9)</f>
-        <v>levelQuality"Space Shuttle",</v>
+        <v>levelQuality:"Space Shuttle",</v>
       </c>
       <c r="E9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!F9)</f>
-        <v>levelQuality"Bike",</v>
+        <v>levelQuality:"Bike",</v>
       </c>
       <c r="F9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!G9)</f>
-        <v>levelQuality"Car",</v>
+        <v>levelQuality:"Car",</v>
       </c>
       <c r="G9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!H9)</f>
-        <v>levelQuality"Jumbo Jet",</v>
+        <v>levelQuality:"Jumbo Jet",</v>
       </c>
       <c r="H9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!I9)</f>
-        <v>levelQuality"Space Shuttle",</v>
+        <v>levelQuality:"Space Shuttle",</v>
       </c>
       <c r="I9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!J9)</f>
-        <v>levelQuality"Bike",</v>
+        <v>levelQuality:"Bike",</v>
       </c>
       <c r="J9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!K9)</f>
-        <v>levelQuality"Car",</v>
+        <v>levelQuality:"Car",</v>
       </c>
       <c r="K9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!L9)</f>
-        <v>levelQuality"Jumbo Jet",</v>
+        <v>levelQuality:"Jumbo Jet",</v>
       </c>
       <c r="L9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!M9)</f>
-        <v>levelQuality"Space Shuttle",</v>
+        <v>levelQuality:"Space Shuttle",</v>
       </c>
       <c r="M9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!N9)</f>
-        <v>levelQuality"Bike",</v>
+        <v>levelQuality:"Bike",</v>
       </c>
       <c r="N9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!O9)</f>
-        <v>levelQuality"Car",</v>
+        <v>levelQuality:"Car",</v>
       </c>
       <c r="O9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!P9)</f>
-        <v>levelQuality"Jumbo Jet",</v>
+        <v>levelQuality:"Jumbo Jet",</v>
       </c>
       <c r="P9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!Q9)</f>
-        <v>levelQuality"Space Shuttle",</v>
+        <v>levelQuality:"Space Shuttle",</v>
       </c>
       <c r="Q9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!R9)</f>
-        <v>levelQuality"Bike",</v>
+        <v>levelQuality:"Bike",</v>
       </c>
       <c r="R9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!S9)</f>
-        <v>levelQuality"Car",</v>
+        <v>levelQuality:"Car",</v>
       </c>
       <c r="S9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!T9)</f>
-        <v>levelQuality"Jumbo Jet",</v>
+        <v>levelQuality:"Jumbo Jet",</v>
       </c>
       <c r="T9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!U9)</f>
-        <v>levelQuality"Space Shuttle",</v>
+        <v>levelQuality:"Space Shuttle",</v>
       </c>
       <c r="U9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!V9)</f>
-        <v>levelQuality"Bike",</v>
+        <v>levelQuality:"Bike",</v>
       </c>
       <c r="V9" t="str">
         <f>CONCATENATE(Sheet3!$A9,Sheet3!W9)</f>
-        <v>levelQuality"Car",</v>
+        <v>levelQuality:"Car",</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -5041,361 +5161,361 @@
     <row r="18" spans="1:22">
       <c r="A18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!B18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="B18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!C18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="C18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!D18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="D18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!E18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="E18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!F18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="F18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!G18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="G18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!H18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="H18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!I18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="I18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!J18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="J18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!K18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!L18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="L18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!M18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="M18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!N18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="N18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!O18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="O18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!P18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="P18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!Q18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="Q18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!R18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="R18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!S18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="S18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!T18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="T18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!U18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="U18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!V18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="V18" t="str">
         <f>CONCATENATE(Sheet3!$A18,Sheet3!W18)</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!B19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="B19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!C19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="C19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!D19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="D19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!E19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="E19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!F19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="F19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!G19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!H19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="H19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!I19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="I19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!J19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="J19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!K19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!L19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="L19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!M19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="M19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!N19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="N19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!O19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="O19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!P19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="P19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!Q19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="Q19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!R19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="R19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!S19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="S19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!T19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="T19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!U19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="U19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!V19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="V19" t="str">
         <f>CONCATENATE(Sheet3!$A19,Sheet3!W19)</f>
-        <v>assignedTo "Joe ryan",</v>
+        <v>assignedTo: "Joe ryan",</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!B20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="B20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!C20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="C20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!D20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="D20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!E20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="E20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!F20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="F20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!G20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="G20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!H20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="H20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!I20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="I20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!J20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="J20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!K20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!L20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="L20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!M20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="M20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!N20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="N20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!O20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="O20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!P20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="P20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!Q20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="Q20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!R20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="R20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!S20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="S20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!T20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="T20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!U20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="U20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!V20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
       <c r="V20" t="str">
         <f>CONCATENATE(Sheet3!$A20,Sheet3!W20)</f>
-        <v>quoteCost"50000",</v>
+        <v>quoteCost:"50000",</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!B21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="B21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!C21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="C21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!D21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="D21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!E21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="E21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!F21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="F21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!G21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="G21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!H21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="H21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!I21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="I21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!J21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="J21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!K21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!L21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="L21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!M21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="M21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!N21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="N21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!O21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="O21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!P21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="P21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!Q21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="Q21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!R21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="R21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!S21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="S21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!T21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="T21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!U21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="U21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!V21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="V21" t="str">
         <f>CONCATENATE(Sheet3!$A21,Sheet3!W21)</f>
-        <v>quoteNeeds "It needs this and that and a whole lot more",</v>
+        <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -5518,7 +5638,7 @@
     <row r="2" spans="1:1">
       <c r="A2" t="str">
         <f>Sheet4!B2</f>
-        <v>quoteId:'100',</v>
+        <v>quoteId:' "2",',</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5608,7 +5728,7 @@
     <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f>Sheet4!B18</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -5626,7 +5746,7 @@
     <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f>Sheet4!C2</f>
-        <v>quoteId:'102',</v>
+        <v>quoteId:' "3",',</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -5716,7 +5836,7 @@
     <row r="35" spans="1:1">
       <c r="A35" t="str">
         <f>Sheet4!C18</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -5734,7 +5854,7 @@
     <row r="38" spans="1:1">
       <c r="A38" t="str">
         <f>Sheet4!D2</f>
-        <v>quoteId:'103',</v>
+        <v>quoteId:' "4",',</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -5824,7 +5944,7 @@
     <row r="53" spans="1:1">
       <c r="A53" t="str">
         <f>Sheet4!D18</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -5842,7 +5962,7 @@
     <row r="56" spans="1:1">
       <c r="A56" t="str">
         <f>Sheet4!E2</f>
-        <v>quoteId:'104',</v>
+        <v>quoteId:' "5",',</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -5932,7 +6052,7 @@
     <row r="71" spans="1:1">
       <c r="A71" t="str">
         <f>Sheet4!E18</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -5950,7 +6070,7 @@
     <row r="74" spans="1:1">
       <c r="A74" t="str">
         <f>Sheet4!F2</f>
-        <v>quoteId:'105',</v>
+        <v>quoteId:' "6",',</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -6040,7 +6160,7 @@
     <row r="89" spans="1:1">
       <c r="A89" t="str">
         <f>Sheet4!F18</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -6058,7 +6178,7 @@
     <row r="92" spans="1:1">
       <c r="A92" t="str">
         <f>Sheet4!G2</f>
-        <v>quoteId:'106',</v>
+        <v>quoteId:' "7",',</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -6148,7 +6268,7 @@
     <row r="107" spans="1:1">
       <c r="A107" t="str">
         <f>Sheet4!G18</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -6166,7 +6286,7 @@
     <row r="110" spans="1:1">
       <c r="A110" t="str">
         <f>Sheet4!H2</f>
-        <v>quoteId:'107',</v>
+        <v>quoteId:' "8",',</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -6256,7 +6376,7 @@
     <row r="125" spans="1:1">
       <c r="A125" t="str">
         <f>Sheet4!H18</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -6274,7 +6394,7 @@
     <row r="128" spans="1:1">
       <c r="A128" t="str">
         <f>Sheet4!I2</f>
-        <v>quoteId:'108',</v>
+        <v>quoteId:' "9",',</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -6364,7 +6484,7 @@
     <row r="143" spans="1:1">
       <c r="A143" t="str">
         <f>Sheet4!I18</f>
-        <v>quoteResponse: "sending the standard response"</v>
+        <v>quoteResponse: "sending the standard response",</v>
       </c>
     </row>
     <row r="144" spans="1:1">
@@ -6389,7 +6509,7 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6402,91 +6522,91 @@
     <row r="1" spans="1:31" s="13" customFormat="1" ht="409">
       <c r="A1" s="13" t="str">
         <f>CONCATENATE(Sheet4!A1,Sheet4!A2,Sheet4!A3,Sheet4!A4,Sheet4!A5,Sheet4!A6,Sheet4!A7,Sheet4!A8,Sheet4!A9,Sheet4!A10,Sheet4!A11,Sheet4!A12,Sheet4!A13,Sheet4!A14,Sheet4!A15,Sheet4!A16,Sheet4!A17,Sheet4!A18,Sheet4!A19,Sheet4!A20,Sheet4!A21,Sheet4!A22)</f>
-        <v>coll.insert({quoteId:'100',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="B1" s="13" t="str">
         <f>CONCATENATE(Sheet4!B1,Sheet4!B2,Sheet4!B3,Sheet4!B4,Sheet4!B5,Sheet4!B6,Sheet4!B7,Sheet4!B8,Sheet4!B9,Sheet4!B10,Sheet4!B11,Sheet4!B12,Sheet4!B13,Sheet4!B14,Sheet4!B15,Sheet4!B16,Sheet4!B17,Sheet4!B18,Sheet4!B19,Sheet4!B20,Sheet4!B21,Sheet4!B22)</f>
-        <v>coll.insert({quoteId:'100',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "2",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="C1" s="13" t="str">
         <f>CONCATENATE(Sheet4!C1,Sheet4!C2,Sheet4!C3,Sheet4!C4,Sheet4!C5,Sheet4!C6,Sheet4!C7,Sheet4!C8,Sheet4!C9,Sheet4!C10,Sheet4!C11,Sheet4!C12,Sheet4!C13,Sheet4!C14,Sheet4!C15,Sheet4!C16,Sheet4!C17,Sheet4!C18,Sheet4!C19,Sheet4!C20,Sheet4!C21,Sheet4!C22)</f>
-        <v>coll.insert({quoteId:'102',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'E-Commerce Web Development',tech:'NoSQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "3",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'E-Commerce Web Development',tech:'NoSQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="D1" s="13" t="str">
         <f>CONCATENATE(Sheet4!D1,Sheet4!D2,Sheet4!D3,Sheet4!D4,Sheet4!D5,Sheet4!D6,Sheet4!D7,Sheet4!D8,Sheet4!D9,Sheet4!D10,Sheet4!D11,Sheet4!D12,Sheet4!D13,Sheet4!D14,Sheet4!D15,Sheet4!D16,Sheet4!D17,Sheet4!D18,Sheet4!D19,Sheet4!D20,Sheet4!D21,Sheet4!D22)</f>
-        <v>coll.insert({quoteId:'103',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "4",',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="E1" s="13" t="str">
         <f>CONCATENATE(Sheet4!E1,Sheet4!E2,Sheet4!E3,Sheet4!E4,Sheet4!E5,Sheet4!E6,Sheet4!E7,Sheet4!E8,Sheet4!E9,Sheet4!E10,Sheet4!E11,Sheet4!E12,Sheet4!E13,Sheet4!E14,Sheet4!E15,Sheet4!E16,Sheet4!E17,Sheet4!E18,Sheet4!E19,Sheet4!E20,Sheet4!E21,Sheet4!E22)</f>
-        <v>coll.insert({quoteId:'104',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "this is the detailed brief",typeDev:'Bespoke Software Platform',tech:'HTML5',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "5",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "this is the detailed brief",typeDev:'Bespoke Software Platform',tech:'HTML5',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="F1" s="13" t="str">
         <f>CONCATENATE(Sheet4!F1,Sheet4!F2,Sheet4!F3,Sheet4!F4,Sheet4!F5,Sheet4!F6,Sheet4!F7,Sheet4!F8,Sheet4!F9,Sheet4!F10,Sheet4!F11,Sheet4!F12,Sheet4!F13,Sheet4!F14,Sheet4!F15,Sheet4!F16,Sheet4!F17,Sheet4!F18,Sheet4!F19,Sheet4!F20,Sheet4!F21,Sheet4!F22)</f>
-        <v>coll.insert({quoteId:'105',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Other:',tech:'SQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "6",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Other:',tech:'SQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="G1" s="13" t="str">
         <f>CONCATENATE(Sheet4!G1,Sheet4!G2,Sheet4!G3,Sheet4!G4,Sheet4!G5,Sheet4!G6,Sheet4!G7,Sheet4!G8,Sheet4!G9,Sheet4!G10,Sheet4!G11,Sheet4!G12,Sheet4!G13,Sheet4!G14,Sheet4!G15,Sheet4!G16,Sheet4!G17,Sheet4!G18,Sheet4!G19,Sheet4!G20,Sheet4!G21,Sheet4!G22)</f>
-        <v>coll.insert({quoteId:'106',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "7",',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="H1" s="13" t="str">
         <f>CONCATENATE(Sheet4!H1,Sheet4!H2,Sheet4!H3,Sheet4!H4,Sheet4!H5,Sheet4!H6,Sheet4!H7,Sheet4!H8,Sheet4!H9,Sheet4!H10,Sheet4!H11,Sheet4!H12,Sheet4!H13,Sheet4!H14,Sheet4!H15,Sheet4!H16,Sheet4!H17,Sheet4!H18,Sheet4!H19,Sheet4!H20,Sheet4!H21,Sheet4!H22)</f>
-        <v>coll.insert({quoteId:'107',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "8",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="I1" s="13" t="str">
         <f>CONCATENATE(Sheet4!I1,Sheet4!I2,Sheet4!I3,Sheet4!I4,Sheet4!I5,Sheet4!I6,Sheet4!I7,Sheet4!I8,Sheet4!I9,Sheet4!I10,Sheet4!I11,Sheet4!I12,Sheet4!I13,Sheet4!I14,Sheet4!I15,Sheet4!I16,Sheet4!I17,Sheet4!I18,Sheet4!I19,Sheet4!I20,Sheet4!I21,Sheet4!I22)</f>
-        <v>coll.insert({quoteId:'108',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime:"Low",rankCost: "High",levelQuality"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "this is the detailed brief",typeDev:'E-Commerce Web Development',tech:'NoSQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "9",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime:"Low",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "this is the detailed brief",typeDev:'E-Commerce Web Development',tech:'NoSQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="J1" s="13" t="str">
         <f>CONCATENATE(Sheet4!J1,Sheet4!J2,Sheet4!J3,Sheet4!J4,Sheet4!J5,Sheet4!J6,Sheet4!J7,Sheet4!J8,Sheet4!J9,Sheet4!J10,Sheet4!J11,Sheet4!J12,Sheet4!J13,Sheet4!J14,Sheet4!J15,Sheet4!J16,Sheet4!J17,Sheet4!J18,Sheet4!J19,Sheet4!J20,Sheet4!J21,Sheet4!J22)</f>
-        <v>coll.insert({quoteId:'109',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost:"Low",levelQuality"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Database Architecture and Design',tech:'Python',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "10",',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost:"Low",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Database Architecture and Design',tech:'Python',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="K1" s="13" t="str">
         <f>CONCATENATE(Sheet4!K1,Sheet4!K2,Sheet4!K3,Sheet4!K4,Sheet4!K5,Sheet4!K6,Sheet4!K7,Sheet4!K8,Sheet4!K9,Sheet4!K10,Sheet4!K11,Sheet4!K12,Sheet4!K13,Sheet4!K14,Sheet4!K15,Sheet4!K16,Sheet4!K17,Sheet4!K18,Sheet4!K19,Sheet4!K20,Sheet4!K21,Sheet4!K22)</f>
-        <v>coll.insert({quoteId:'110',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Bespoke Software Platform',tech:'JavaScript',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Bespoke Software Platform',tech:'JavaScript',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="L1" s="13" t="str">
         <f>CONCATENATE(Sheet4!L1,Sheet4!L2,Sheet4!L3,Sheet4!L4,Sheet4!L5,Sheet4!L6,Sheet4!L7,Sheet4!L8,Sheet4!L9,Sheet4!L10,Sheet4!L11,Sheet4!L12,Sheet4!L13,Sheet4!L14,Sheet4!L15,Sheet4!L16,Sheet4!L17,Sheet4!L18,Sheet4!L19,Sheet4!L20,Sheet4!L21,Sheet4!L22)</f>
-        <v>coll.insert({quoteId:'111',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="M1" s="13" t="str">
         <f>CONCATENATE(Sheet4!M1,Sheet4!M2,Sheet4!M3,Sheet4!M4,Sheet4!M5,Sheet4!M6,Sheet4!M7,Sheet4!M8,Sheet4!M9,Sheet4!M10,Sheet4!M11,Sheet4!M12,Sheet4!M13,Sheet4!M14,Sheet4!M15,Sheet4!M16,Sheet4!M17,Sheet4!M18,Sheet4!M19,Sheet4!M20,Sheet4!M21,Sheet4!M22)</f>
-        <v>coll.insert({quoteId:'112',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="N1" s="13" t="str">
         <f>CONCATENATE(Sheet4!N1,Sheet4!N2,Sheet4!N3,Sheet4!N4,Sheet4!N5,Sheet4!N6,Sheet4!N7,Sheet4!N8,Sheet4!N9,Sheet4!N10,Sheet4!N11,Sheet4!N12,Sheet4!N13,Sheet4!N14,Sheet4!N15,Sheet4!N16,Sheet4!N17,Sheet4!N18,Sheet4!N19,Sheet4!N20,Sheet4!N21,Sheet4!N22)</f>
-        <v>coll.insert({quoteId:'113',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="O1" s="13" t="str">
         <f>CONCATENATE(Sheet4!O1,Sheet4!O2,Sheet4!O3,Sheet4!O4,Sheet4!O5,Sheet4!O6,Sheet4!O7,Sheet4!O8,Sheet4!O9,Sheet4!O10,Sheet4!O11,Sheet4!O12,Sheet4!O13,Sheet4!O14,Sheet4!O15,Sheet4!O16,Sheet4!O17,Sheet4!O18,Sheet4!O19,Sheet4!O20,Sheet4!O21,Sheet4!O22)</f>
-        <v>coll.insert({quoteId:'114',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="P1" s="13" t="str">
         <f>CONCATENATE(Sheet4!P1,Sheet4!P2,Sheet4!P3,Sheet4!P4,Sheet4!P5,Sheet4!P6,Sheet4!P7,Sheet4!P8,Sheet4!P9,Sheet4!P10,Sheet4!P11,Sheet4!P12,Sheet4!P13,Sheet4!P14,Sheet4!P15,Sheet4!P16,Sheet4!P17,Sheet4!P18,Sheet4!P19,Sheet4!P20,Sheet4!P21,Sheet4!P22)</f>
-        <v>coll.insert({quoteId:'115',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'HTML5',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'HTML5',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="Q1" s="13" t="str">
         <f>CONCATENATE(Sheet4!Q1,Sheet4!Q2,Sheet4!Q3,Sheet4!Q4,Sheet4!Q5,Sheet4!Q6,Sheet4!Q7,Sheet4!Q8,Sheet4!Q9,Sheet4!Q10,Sheet4!Q11,Sheet4!Q12,Sheet4!Q13,Sheet4!Q14,Sheet4!Q15,Sheet4!Q16,Sheet4!Q17,Sheet4!Q18,Sheet4!Q19,Sheet4!Q20,Sheet4!Q21,Sheet4!Q22)</f>
-        <v>coll.insert({quoteId:'116',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'SQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'SQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="R1" s="13" t="str">
         <f>CONCATENATE(Sheet4!R1,Sheet4!R2,Sheet4!R3,Sheet4!R4,Sheet4!R5,Sheet4!R6,Sheet4!R7,Sheet4!R8,Sheet4!R9,Sheet4!R10,Sheet4!R11,Sheet4!R12,Sheet4!R13,Sheet4!R14,Sheet4!R15,Sheet4!R16,Sheet4!R17,Sheet4!R18,Sheet4!R19,Sheet4!R20,Sheet4!R21,Sheet4!R22)</f>
-        <v>coll.insert({quoteId:117name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId: "1",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="S1" s="13" t="str">
         <f>CONCATENATE(Sheet4!S1,Sheet4!S2,Sheet4!S3,Sheet4!S4,Sheet4!S5,Sheet4!S6,Sheet4!S7,Sheet4!S8,Sheet4!S9,Sheet4!S10,Sheet4!S11,Sheet4!S12,Sheet4!S13,Sheet4!S14,Sheet4!S15,Sheet4!S16,Sheet4!S17,Sheet4!S18,Sheet4!S19,Sheet4!S20,Sheet4!S21,Sheet4!S22)</f>
-        <v>coll.insert({quoteId:118name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId: "1",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="T1" s="13" t="str">
         <f>CONCATENATE(Sheet4!T1,Sheet4!T2,Sheet4!T3,Sheet4!T4,Sheet4!T5,Sheet4!T6,Sheet4!T7,Sheet4!T8,Sheet4!T9,Sheet4!T10,Sheet4!T11,Sheet4!T12,Sheet4!T13,Sheet4!T14,Sheet4!T15,Sheet4!T16,Sheet4!T17,Sheet4!T18,Sheet4!T19,Sheet4!T20,Sheet4!T21,Sheet4!T22)</f>
-        <v>coll.insert({quoteId:119name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'NoSQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId: "1",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'NoSQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="U1" s="13" t="str">
         <f>CONCATENATE(Sheet4!U1,Sheet4!U2,Sheet4!U3,Sheet4!U4,Sheet4!U5,Sheet4!U6,Sheet4!U7,Sheet4!U8,Sheet4!U9,Sheet4!U10,Sheet4!U11,Sheet4!U12,Sheet4!U13,Sheet4!U14,Sheet4!U15,Sheet4!U16,Sheet4!U17,Sheet4!U18,Sheet4!U19,Sheet4!U20,Sheet4!U21,Sheet4!U22)</f>
-        <v>coll.insert({quoteId:120name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'E-Commerce Web Development',tech:'Python',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId: "1",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'E-Commerce Web Development',tech:'Python',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="V1" s="13" t="str">
         <f>CONCATENATE(Sheet4!V1,Sheet4!V2,Sheet4!V3,Sheet4!V4,Sheet4!V5,Sheet4!V6,Sheet4!V7,Sheet4!V8,Sheet4!V9,Sheet4!V10,Sheet4!V11,Sheet4!V12,Sheet4!V13,Sheet4!V14,Sheet4!V15,Sheet4!V16,Sheet4!V17,Sheet4!V18,Sheet4!V19,Sheet4!V20,Sheet4!V21,Sheet4!V22)</f>
-        <v>coll.insert({quoteId:121name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId: "1",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="W1" s="13" t="str">
         <f>CONCATENATE(Sheet4!W1,Sheet4!W2,Sheet4!W3,Sheet4!W4,Sheet4!W5,Sheet4!W6,Sheet4!W7,Sheet4!W8,Sheet4!W9,Sheet4!W10,Sheet4!W11,Sheet4!W12,Sheet4!W13,Sheet4!W14,Sheet4!W15,Sheet4!W16,Sheet4!W17,Sheet4!W18,Sheet4!W19,Sheet4!W20,Sheet4!W21,Sheet4!W22)</f>
@@ -6528,28 +6648,28 @@
     <row r="5" spans="1:31" ht="225">
       <c r="A5" s="1" t="str">
         <f>A1</f>
-        <v>coll.insert({quoteId:'100',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="225">
       <c r="A6" s="1" t="str">
         <f>B1</f>
-        <v>coll.insert({quoteId:'100',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response"assignedTo "Joe ryan",quoteCost"50000",quoteNeeds "It needs this and that and a whole lot more",});</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="225">
+        <v>coll.insert({quoteId:' "2",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <f>A3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="225">
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
-        <f t="shared" ref="A7:A9" si="0">B3</f>
+        <f t="shared" ref="A8:A9" si="0">B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="225">
+    <row r="9" spans="1:31">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/drafts/CRM-schema.xlsx
+++ b/drafts/CRM-schema.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="quoteCollection" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Field Names" sheetId="1" r:id="rId1"/>
+    <sheet name="Schema Layout" sheetId="2" r:id="rId2"/>
+    <sheet name="Document Data" sheetId="3" r:id="rId3"/>
+    <sheet name="JSON" sheetId="4" r:id="rId4"/>
+    <sheet name="variables" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">quoteCollection!$A$1:$I$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Field Names'!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="155">
   <si>
     <t>Your name, please? *</t>
   </si>
@@ -400,15 +399,6 @@
     <t>tech:</t>
   </si>
   <si>
-    <t>assignedTo</t>
-  </si>
-  <si>
-    <t>quoteCost</t>
-  </si>
-  <si>
-    <t>quoteNeeds</t>
-  </si>
-  <si>
     <t xml:space="preserve">assigned </t>
   </si>
   <si>
@@ -439,9 +429,6 @@
     <t>Possible Values</t>
   </si>
   <si>
-    <t>levelQuality</t>
-  </si>
-  <si>
     <t>Whats the level of Quality you need?</t>
   </si>
   <si>
@@ -454,15 +441,9 @@
     <t>status</t>
   </si>
   <si>
-    <t>quoteStatus</t>
-  </si>
-  <si>
     <t>quotenumber</t>
   </si>
   <si>
-    <t>quoteId</t>
-  </si>
-  <si>
     <t>Next quote Id</t>
   </si>
   <si>
@@ -530,13 +511,83 @@
   </si>
   <si>
     <t xml:space="preserve"> "10",</t>
+  </si>
+  <si>
+    <t>{{</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>}}</t>
+  </si>
+  <si>
+    <r>
+      <t>rankQuality:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>quoteStatus:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>quoteStatus:</t>
+  </si>
+  <si>
+    <t>budget:</t>
+  </si>
+  <si>
+    <r>
+      <t>brief:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF44747"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cars = ["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"] </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -624,6 +675,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -642,7 +698,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -876,8 +932,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -910,8 +974,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="241">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1078,6 +1143,14 @@
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1476,10 +1549,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0"/>
@@ -1495,7 +1568,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="57" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>36</v>
@@ -1513,12 +1586,12 @@
         <v>47</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>71</v>
@@ -1530,16 +1603,16 @@
         <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="57" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1553,7 +1626,7 @@
     </row>
     <row r="4" spans="1:14" ht="57" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>89</v>
@@ -1565,12 +1638,12 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="57" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>90</v>
@@ -1582,15 +1655,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="57" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1599,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -1608,7 +1681,7 @@
     </row>
     <row r="7" spans="1:14" ht="57" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>92</v>
@@ -1629,7 +1702,7 @@
     </row>
     <row r="8" spans="1:14" ht="57" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>93</v>
@@ -1650,16 +1723,16 @@
     </row>
     <row r="9" spans="1:14" ht="57" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
@@ -1679,7 +1752,7 @@
     </row>
     <row r="10" spans="1:14" ht="57" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>94</v>
@@ -1697,7 +1770,7 @@
     </row>
     <row r="11" spans="1:14" ht="57" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>95</v>
@@ -1715,10 +1788,10 @@
     </row>
     <row r="12" spans="1:14" ht="57" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -1735,10 +1808,10 @@
     </row>
     <row r="13" spans="1:14" ht="57" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -1752,7 +1825,7 @@
     </row>
     <row r="14" spans="1:14" ht="57" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>105</v>
@@ -1784,7 +1857,7 @@
     </row>
     <row r="15" spans="1:14" ht="57" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>106</v>
@@ -1822,16 +1895,16 @@
     </row>
     <row r="16" spans="1:14" ht="57" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G16" t="s">
         <v>102</v>
@@ -1845,7 +1918,7 @@
     </row>
     <row r="17" spans="1:9" ht="57" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>99</v>
@@ -1854,13 +1927,13 @@
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="57" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>100</v>
@@ -1869,61 +1942,61 @@
         <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="57" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="57" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="57" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
@@ -1940,24 +2013,18 @@
     </row>
     <row r="23" spans="1:9" ht="57" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="57" customHeight="1">
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="57" customHeight="1">
-      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2009,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2100,70 +2167,70 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="31">
@@ -2594,73 +2661,73 @@
     </row>
     <row r="9" spans="1:24" ht="31">
       <c r="A9" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="31">
@@ -3018,12 +3085,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="31">
+    <row r="15" spans="1:24" ht="76">
       <c r="A15" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>86</v>
@@ -3237,283 +3304,283 @@
         <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="17">
       <c r="A19" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="23" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="76">
       <c r="A21" s="11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3585,6 +3652,138 @@
       </c>
       <c r="W22" s="2" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16">
+      <c r="B27" t="str">
+        <f>'Document Data'!$A$1</f>
+        <v>coll.insert({</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="16">
+      <c r="B28" t="str">
+        <f>CONCATENATE('Document Data'!$A28,"'",'Document Data'!C28,"',")</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="16">
+      <c r="B29" t="str">
+        <f>CONCATENATE('Document Data'!$A29,'Document Data'!C29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="16">
+      <c r="B30" t="str">
+        <f>CONCATENATE('Document Data'!$A30,'Document Data'!C30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="16">
+      <c r="B31" t="str">
+        <f>CONCATENATE('Document Data'!$A31,'Document Data'!C31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="16">
+      <c r="B32" t="str">
+        <f>CONCATENATE('Document Data'!$A32,'Document Data'!C32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="16">
+      <c r="B33" t="str">
+        <f>CONCATENATE('Document Data'!$A33,'Document Data'!C33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="16">
+      <c r="B34" t="str">
+        <f>CONCATENATE('Document Data'!$A34,'Document Data'!C34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="16">
+      <c r="B35" t="str">
+        <f>CONCATENATE('Document Data'!$A35,'Document Data'!C35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="16">
+      <c r="B36" t="str">
+        <f>CONCATENATE('Document Data'!$A36,'Document Data'!C36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="16">
+      <c r="B37" t="str">
+        <f>CONCATENATE('Document Data'!$A37,'Document Data'!C37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="16">
+      <c r="B38" t="str">
+        <f>CONCATENATE('Document Data'!$A38,'Document Data'!C38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="16">
+      <c r="B39" t="str">
+        <f>CONCATENATE('Document Data'!$A39,'Document Data'!C39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="16">
+      <c r="B40" t="str">
+        <f>CONCATENATE('Document Data'!$A40,'Document Data'!C40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="16">
+      <c r="B41" t="str">
+        <f>CONCATENATE('Document Data'!$A41,'Document Data'!C41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="16">
+      <c r="B42" t="str">
+        <f>CONCATENATE('Document Data'!$A42,'Document Data'!C42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="16">
+      <c r="B43" t="str">
+        <f>CONCATENATE('Document Data'!$A43,'Document Data'!C43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="16">
+      <c r="B44" t="str">
+        <f>CONCATENATE('Document Data'!$A44,'Document Data'!C44)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="16">
+      <c r="B45" t="str">
+        <f>CONCATENATE('Document Data'!$A45,'Document Data'!C45)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="16">
+      <c r="B46" t="str">
+        <f>CONCATENATE('Document Data'!$A46,'Document Data'!C46)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="16">
+      <c r="B47" t="str">
+        <f>CONCATENATE('Document Data'!$A47,'Document Data'!C47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="16">
+      <c r="B48">
+        <f>'Document Data'!E48</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3614,1989 +3813,1983 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="109.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="66.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="B1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="C1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="D1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="E1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="F1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="G1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="H1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="I1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="J1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="K1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="L1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="M1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="N1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="O1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="P1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="Q1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="R1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="S1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="T1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="U1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
       <c r="V1" t="str">
-        <f>Sheet3!$A$1</f>
+        <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!B2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!B2,"',")</f>
         <v>quoteId:' "1",',</v>
       </c>
       <c r="B2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!C2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!C2,"',")</f>
         <v>quoteId:' "2",',</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!D2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!D2,"',")</f>
         <v>quoteId:' "3",',</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!E2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!E2,"',")</f>
         <v>quoteId:' "4",',</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!F2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!F2,"',")</f>
         <v>quoteId:' "5",',</v>
       </c>
       <c r="F2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!G2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!G2,"',")</f>
         <v>quoteId:' "6",',</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!H2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!H2,"',")</f>
         <v>quoteId:' "7",',</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!I2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!I2,"',")</f>
         <v>quoteId:' "8",',</v>
       </c>
       <c r="I2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!J2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!J2,"',")</f>
         <v>quoteId:' "9",',</v>
       </c>
       <c r="J2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!K2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!K2,"',")</f>
         <v>quoteId:' "10",',</v>
       </c>
       <c r="K2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!L2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!L2,"',")</f>
         <v>quoteId:' "1",',</v>
       </c>
       <c r="L2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!M2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!M2,"',")</f>
         <v>quoteId:' "1",',</v>
       </c>
       <c r="M2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!N2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!N2,"',")</f>
         <v>quoteId:' "1",',</v>
       </c>
       <c r="N2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!O2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!O2,"',")</f>
         <v>quoteId:' "1",',</v>
       </c>
       <c r="O2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!P2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!P2,"',")</f>
         <v>quoteId:' "1",',</v>
       </c>
       <c r="P2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!Q2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!Q2,"',")</f>
         <v>quoteId:' "1",',</v>
       </c>
       <c r="Q2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,"'",Sheet3!R2,"',")</f>
+        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!R2,"',")</f>
         <v>quoteId:' "1",',</v>
       </c>
       <c r="R2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,Sheet3!S2)</f>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!S2)</f>
         <v>quoteId: "1",</v>
       </c>
       <c r="S2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,Sheet3!T2)</f>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!T2)</f>
         <v>quoteId: "1",</v>
       </c>
       <c r="T2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,Sheet3!U2)</f>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!U2)</f>
         <v>quoteId: "1",</v>
       </c>
       <c r="U2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,Sheet3!V2)</f>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!V2)</f>
         <v>quoteId: "1",</v>
       </c>
       <c r="V2" t="str">
-        <f>CONCATENATE(Sheet3!$A2,Sheet3!W2)</f>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!W2)</f>
         <v>quoteId: "1",</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!B3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!B3)</f>
         <v>name: "Mr. Simpson",</v>
       </c>
       <c r="B3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!C3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!C3)</f>
         <v>name: "Mr. Smith",</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!D3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!D3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!E3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!E3)</f>
         <v>name: "ciaran",</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!F3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!F3)</f>
         <v>name: "Mr. Smith",</v>
       </c>
       <c r="F3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!G3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!G3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="G3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!H3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!H3)</f>
         <v>name: "ciaran",</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!I3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!I3)</f>
         <v>name: "Mr. Smith",</v>
       </c>
       <c r="I3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!J3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!J3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="J3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!K3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!K3)</f>
         <v>name: "ciaran",</v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!L3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!L3)</f>
         <v>name: "Mr. Smith",</v>
       </c>
       <c r="L3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!M3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!M3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="M3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!N3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!N3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="N3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!O3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!O3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="O3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!P3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!P3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="P3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!Q3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!Q3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="Q3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!R3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!R3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="R3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!S3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!S3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="S3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!T3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!T3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="T3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!U3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!U3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="U3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!V3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!V3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
       <c r="V3" t="str">
-        <f>CONCATENATE(Sheet3!$A3,Sheet3!W3)</f>
+        <f>CONCATENATE('Document Data'!$A3,'Document Data'!W3)</f>
         <v>name: "Mr. Ross",</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!B4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!B4)</f>
         <v>email: "ciaran.quinlan@gmail.com",</v>
       </c>
       <c r="B4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!C4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!C4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!D4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!D4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!E4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!E4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!F4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!F4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!G4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!G4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="G4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!H4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!H4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!I4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!I4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="I4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!J4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!J4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="J4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!K4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!K4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="K4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!L4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!L4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="L4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!M4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!M4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="M4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!N4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!N4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="N4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!O4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!O4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="O4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!P4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!P4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="P4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!Q4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!Q4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="Q4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!R4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!R4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="R4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!S4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!S4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="S4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!T4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!T4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="T4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!U4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!U4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="U4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!V4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!V4)</f>
         <v>email:"random@email.com",</v>
       </c>
       <c r="V4" t="str">
-        <f>CONCATENATE(Sheet3!$A4,Sheet3!W4)</f>
+        <f>CONCATENATE('Document Data'!$A4,'Document Data'!W4)</f>
         <v>email:"random@email.com",</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!B5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!B5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="B5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!C5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!C5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="C5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!D5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!D5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="D5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!E5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!E5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!F5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!F5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!G5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!G5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="G5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!H5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!H5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!I5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!I5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="I5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!J5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!J5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="J5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!K5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!K5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="K5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!L5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!L5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="L5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!M5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!M5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="M5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!N5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!N5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="N5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!O5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!O5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="O5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!P5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!P5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="P5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!Q5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!Q5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="Q5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!R5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!R5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="R5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!S5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!S5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="S5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!T5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!T5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="T5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!U5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!U5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="U5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!V5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!V5)</f>
         <v>phone: "0868090777",</v>
       </c>
       <c r="V5" t="str">
-        <f>CONCATENATE(Sheet3!$A5,Sheet3!W5)</f>
+        <f>CONCATENATE('Document Data'!$A5,'Document Data'!W5)</f>
         <v>phone: "0868090777",</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!B6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!B6)</f>
         <v>rankQuality: "Low",</v>
       </c>
       <c r="B6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!C6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!C6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="C6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!D6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!D6)</f>
         <v>rankQuality:  "High",</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!E6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!E6)</f>
         <v>rankQuality:  "High",</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!F6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!F6)</f>
         <v>rankQuality: "Low",</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!G6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!G6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="G6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!H6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!H6)</f>
         <v>rankQuality:  "High",</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!I6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!I6)</f>
         <v>rankQuality:  "High",</v>
       </c>
       <c r="I6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!J6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!J6)</f>
         <v>rankQuality: "Low",</v>
       </c>
       <c r="J6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!K6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!K6)</f>
         <v>rankQuality: "Low",</v>
       </c>
       <c r="K6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!L6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!L6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="L6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!M6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!M6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="M6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!N6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!N6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="N6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!O6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!O6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="O6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!P6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!P6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="P6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!Q6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!Q6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="Q6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!R6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!R6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="R6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!S6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!S6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="S6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!T6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!T6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="T6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!U6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!U6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="U6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!V6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!V6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
       <c r="V6" t="str">
-        <f>CONCATENATE(Sheet3!$A6,Sheet3!W6)</f>
+        <f>CONCATENATE('Document Data'!$A6,'Document Data'!W6)</f>
         <v>rankQuality:  "Medium",</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!B7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!B7)</f>
         <v>rankTime: "Medium",</v>
       </c>
       <c r="B7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!C7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!C7)</f>
         <v>rankTime:"Low",</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!D7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!D7)</f>
         <v>rankTime: "Medium",</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!E7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!E7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!F7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!F7)</f>
         <v>rankTime: "Medium",</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!G7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!G7)</f>
         <v>rankTime:"Low",</v>
       </c>
       <c r="G7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!H7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!H7)</f>
         <v>rankTime: "Medium",</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!I7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!I7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="I7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!J7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!J7)</f>
         <v>rankTime:"Low",</v>
       </c>
       <c r="J7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!K7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!K7)</f>
         <v>rankTime: "Medium",</v>
       </c>
       <c r="K7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!L7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!L7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="L7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!M7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!M7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="M7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!N7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!N7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="N7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!O7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!O7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="O7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!P7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!P7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="P7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!Q7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!Q7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="Q7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!R7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!R7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="R7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!S7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!S7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="S7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!T7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!T7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="T7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!U7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!U7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="U7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!V7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!V7)</f>
         <v>rankTime: "High",</v>
       </c>
       <c r="V7" t="str">
-        <f>CONCATENATE(Sheet3!$A7,Sheet3!W7)</f>
+        <f>CONCATENATE('Document Data'!$A7,'Document Data'!W7)</f>
         <v>rankTime: "High",</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!B8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!B8)</f>
         <v>rankCost: "High",</v>
       </c>
       <c r="B8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!C8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!C8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="C8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!D8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!D8)</f>
         <v>rankCost:"Low",</v>
       </c>
       <c r="D8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!E8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!E8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!F8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!F8)</f>
         <v>rankCost: "High",</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!G8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!G8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="G8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!H8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!H8)</f>
         <v>rankCost:"Low",</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!I8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!I8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="I8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!J8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!J8)</f>
         <v>rankCost: "High",</v>
       </c>
       <c r="J8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!K8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!K8)</f>
         <v>rankCost:"Low",</v>
       </c>
       <c r="K8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!L8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!L8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="L8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!M8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!M8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="M8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!N8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!N8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="N8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!O8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!O8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="O8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!P8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!P8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="P8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!Q8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!Q8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="Q8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!R8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!R8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="R8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!S8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!S8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="S8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!T8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!T8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="T8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!U8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!U8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="U8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!V8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!V8)</f>
         <v>rankCost: "Medium",</v>
       </c>
       <c r="V8" t="str">
-        <f>CONCATENATE(Sheet3!$A8,Sheet3!W8)</f>
+        <f>CONCATENATE('Document Data'!$A8,'Document Data'!W8)</f>
         <v>rankCost: "Medium",</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!B9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!B9)</f>
         <v>levelQuality:"Bike",</v>
       </c>
       <c r="B9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!C9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!C9)</f>
         <v>levelQuality:"Car",</v>
       </c>
       <c r="C9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!D9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!D9)</f>
         <v>levelQuality:"Jumbo Jet",</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!E9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!E9)</f>
         <v>levelQuality:"Space Shuttle",</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!F9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!F9)</f>
         <v>levelQuality:"Bike",</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!G9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!G9)</f>
         <v>levelQuality:"Car",</v>
       </c>
       <c r="G9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!H9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!H9)</f>
         <v>levelQuality:"Jumbo Jet",</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!I9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!I9)</f>
         <v>levelQuality:"Space Shuttle",</v>
       </c>
       <c r="I9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!J9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!J9)</f>
         <v>levelQuality:"Bike",</v>
       </c>
       <c r="J9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!K9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!K9)</f>
         <v>levelQuality:"Car",</v>
       </c>
       <c r="K9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!L9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!L9)</f>
         <v>levelQuality:"Jumbo Jet",</v>
       </c>
       <c r="L9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!M9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!M9)</f>
         <v>levelQuality:"Space Shuttle",</v>
       </c>
       <c r="M9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!N9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!N9)</f>
         <v>levelQuality:"Bike",</v>
       </c>
       <c r="N9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!O9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!O9)</f>
         <v>levelQuality:"Car",</v>
       </c>
       <c r="O9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!P9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!P9)</f>
         <v>levelQuality:"Jumbo Jet",</v>
       </c>
       <c r="P9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!Q9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!Q9)</f>
         <v>levelQuality:"Space Shuttle",</v>
       </c>
       <c r="Q9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!R9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!R9)</f>
         <v>levelQuality:"Bike",</v>
       </c>
       <c r="R9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!S9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!S9)</f>
         <v>levelQuality:"Car",</v>
       </c>
       <c r="S9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!T9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!T9)</f>
         <v>levelQuality:"Jumbo Jet",</v>
       </c>
       <c r="T9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!U9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!U9)</f>
         <v>levelQuality:"Space Shuttle",</v>
       </c>
       <c r="U9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!V9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!V9)</f>
         <v>levelQuality:"Bike",</v>
       </c>
       <c r="V9" t="str">
-        <f>CONCATENATE(Sheet3!$A9,Sheet3!W9)</f>
+        <f>CONCATENATE('Document Data'!$A9,'Document Data'!W9)</f>
         <v>levelQuality:"Car",</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!B10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!B10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="B10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!C10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!C10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="C10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!D10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!D10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!E10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!E10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!F10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!F10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!G10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!G10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="G10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!H10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!H10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!I10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!I10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="I10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!J10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!J10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="J10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!K10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!K10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="K10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!L10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!L10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="L10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!M10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!M10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="M10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!N10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!N10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="N10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!O10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!O10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="O10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!P10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!P10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="P10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!Q10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!Q10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="Q10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!R10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!R10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="R10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!S10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!S10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="S10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!T10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!T10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="T10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!U10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!U10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="U10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!V10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!V10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
       <c r="V10" t="str">
-        <f>CONCATENATE(Sheet3!$A10,Sheet3!W10)</f>
+        <f>CONCATENATE('Document Data'!$A10,'Document Data'!W10)</f>
         <v>expectedDate: "01/09/2019",</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!B11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!B11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="B11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!C11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!C11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!D11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!D11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!E11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!E11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!F11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!F11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!G11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!G11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="G11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!H11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!H11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!I11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!I11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!J11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!J11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="J11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!K11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!K11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="K11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!L11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!L11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="L11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!M11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!M11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="M11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!N11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!N11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="N11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!O11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!O11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="O11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!P11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!P11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="P11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!Q11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!Q11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="Q11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!R11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!R11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="R11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!S11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!S11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="S11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!T11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!T11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="T11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!U11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!U11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="U11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!V11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!V11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
       <c r="V11" t="str">
-        <f>CONCATENATE(Sheet3!$A11,Sheet3!W11)</f>
+        <f>CONCATENATE('Document Data'!$A11,'Document Data'!W11)</f>
         <v>liveDate: "01/09/2019",</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!B12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!B12)</f>
         <v>budget: "4000",</v>
       </c>
       <c r="B12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!C12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!C12)</f>
         <v>budget: "5000",</v>
       </c>
       <c r="C12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!D12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!D12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="D12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!E12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!E12)</f>
         <v>budget: "4000",</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!F12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!F12)</f>
         <v>budget: "5000",</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!G12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!G12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="G12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!H12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!H12)</f>
         <v>budget: "4000",</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!I12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!I12)</f>
         <v>budget: "5000",</v>
       </c>
       <c r="I12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!J12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!J12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="J12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!K12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!K12)</f>
         <v>budget: "4000",</v>
       </c>
       <c r="K12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!L12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!L12)</f>
         <v>budget: "5000",</v>
       </c>
       <c r="L12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!M12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!M12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="M12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!N12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!N12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="N12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!O12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!O12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="O12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!P12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!P12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="P12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!Q12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!Q12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="Q12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!R12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!R12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="R12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!S12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!S12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="S12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!T12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!T12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="T12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!U12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!U12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="U12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!V12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!V12)</f>
         <v>budget: "10000",</v>
       </c>
       <c r="V12" t="str">
-        <f>CONCATENATE(Sheet3!$A12,Sheet3!W12)</f>
+        <f>CONCATENATE('Document Data'!$A12,'Document Data'!W12)</f>
         <v>budget: "10000",</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!B13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!B13)</f>
         <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
       </c>
       <c r="B13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!C13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!C13)</f>
         <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
       </c>
       <c r="C13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!D13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!D13)</f>
         <v>brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</v>
       </c>
       <c r="D13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!E13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!E13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!F13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!F13)</f>
         <v>brief: "this is the detailed brief",</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!G13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!G13)</f>
         <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
       </c>
       <c r="G13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!H13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!H13)</f>
         <v>brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!I13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!I13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="I13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!J13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!J13)</f>
         <v>brief: "this is the detailed brief",</v>
       </c>
       <c r="J13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!K13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!K13)</f>
         <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
       </c>
       <c r="K13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!L13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!L13)</f>
         <v>brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</v>
       </c>
       <c r="L13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!M13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!M13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="M13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!N13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!N13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="N13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!O13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!O13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="O13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!P13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!P13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="P13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!Q13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!Q13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="Q13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!R13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!R13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="R13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!S13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!S13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="S13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!T13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!T13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="T13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!U13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!U13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="U13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!V13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!V13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
       <c r="V13" t="str">
-        <f>CONCATENATE(Sheet3!$A13,Sheet3!W13)</f>
+        <f>CONCATENATE('Document Data'!$A13,'Document Data'!W13)</f>
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!B14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!B14)</f>
         <v>typeDev:'Responsive Web Development (HTML5/JSON/REST)',</v>
       </c>
       <c r="B14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!C14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!C14)</f>
         <v>typeDev:'Native Mobile Application (iOS)',</v>
       </c>
       <c r="C14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!D14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!D14)</f>
         <v>typeDev:'E-Commerce Web Development',</v>
       </c>
       <c r="D14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!E14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!E14)</f>
         <v>typeDev:'Database Architecture and Design',</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!F14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!F14)</f>
         <v>typeDev:'Bespoke Software Platform',</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!G14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!G14)</f>
         <v>typeDev:'Other:',</v>
       </c>
       <c r="G14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!H14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!H14)</f>
         <v>typeDev:'Responsive Web Development (HTML5/JSON/REST)',</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!I14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!I14)</f>
         <v>typeDev:'Native Mobile Application (iOS)',</v>
       </c>
       <c r="I14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!J14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!J14)</f>
         <v>typeDev:'E-Commerce Web Development',</v>
       </c>
       <c r="J14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!K14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!K14)</f>
         <v>typeDev:'Database Architecture and Design',</v>
       </c>
       <c r="K14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!L14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!L14)</f>
         <v>typeDev:'Bespoke Software Platform',</v>
       </c>
       <c r="L14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!M14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!M14)</f>
         <v>typeDev:'Other:',</v>
       </c>
       <c r="M14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!N14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!N14)</f>
         <v>typeDev:'Bespoke Software Platform',</v>
       </c>
       <c r="N14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!O14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!O14)</f>
         <v>typeDev:'Other:',</v>
       </c>
       <c r="O14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!P14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!P14)</f>
         <v>typeDev:'Responsive Web Development (HTML5/JSON/REST)',</v>
       </c>
       <c r="P14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!Q14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!Q14)</f>
         <v>typeDev:'Native Mobile Application (iOS)',</v>
       </c>
       <c r="Q14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!R14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!R14)</f>
         <v>typeDev:'Bespoke Software Platform',</v>
       </c>
       <c r="R14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!S14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!S14)</f>
         <v>typeDev:'Other:',</v>
       </c>
       <c r="S14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!T14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!T14)</f>
         <v>typeDev:'Responsive Web Development (HTML5/JSON/REST)',</v>
       </c>
       <c r="T14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!U14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!U14)</f>
         <v>typeDev:'Native Mobile Application (iOS)',</v>
       </c>
       <c r="U14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!V14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!V14)</f>
         <v>typeDev:'E-Commerce Web Development',</v>
       </c>
       <c r="V14" t="str">
-        <f>CONCATENATE(Sheet3!$A14,Sheet3!W14)</f>
+        <f>CONCATENATE('Document Data'!$A14,'Document Data'!W14)</f>
         <v>typeDev:'Database Architecture and Design',</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!B15)</f>
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!B15)</f>
+        <v xml:space="preserve">tech:cars = ["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"] </v>
+      </c>
+      <c r="B15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!C15)</f>
+        <v>tech:'Django',</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!D15)</f>
+        <v>tech:'NoSQL',</v>
+      </c>
+      <c r="D15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!E15)</f>
+        <v>tech:'JavaScript',</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!F15)</f>
+        <v>tech:'HTML5',</v>
+      </c>
+      <c r="F15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!G15)</f>
+        <v>tech:'SQL',</v>
+      </c>
+      <c r="G15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!H15)</f>
         <v>tech:'Flask',</v>
       </c>
-      <c r="B15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!C15)</f>
+      <c r="H15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!I15)</f>
         <v>tech:'Django',</v>
       </c>
-      <c r="C15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!D15)</f>
+      <c r="I15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!J15)</f>
         <v>tech:'NoSQL',</v>
       </c>
-      <c r="D15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!E15)</f>
+      <c r="J15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!K15)</f>
+        <v>tech:'Python',</v>
+      </c>
+      <c r="K15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!L15)</f>
         <v>tech:'JavaScript',</v>
       </c>
-      <c r="E15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!F15)</f>
+      <c r="L15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!M15)</f>
         <v>tech:'HTML5',</v>
       </c>
-      <c r="F15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!G15)</f>
+      <c r="M15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!N15)</f>
+        <v>tech:'HTML5',</v>
+      </c>
+      <c r="N15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!O15)</f>
+        <v>tech:'HTML5',</v>
+      </c>
+      <c r="O15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!P15)</f>
+        <v>tech:'HTML5',</v>
+      </c>
+      <c r="P15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!Q15)</f>
+        <v>tech:'HTML5',</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!R15)</f>
         <v>tech:'SQL',</v>
       </c>
-      <c r="G15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!H15)</f>
+      <c r="R15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!S15)</f>
         <v>tech:'Flask',</v>
       </c>
-      <c r="H15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!I15)</f>
+      <c r="S15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!T15)</f>
         <v>tech:'Django',</v>
       </c>
-      <c r="I15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!J15)</f>
+      <c r="T15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!U15)</f>
         <v>tech:'NoSQL',</v>
       </c>
-      <c r="J15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!K15)</f>
+      <c r="U15" t="str">
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!V15)</f>
         <v>tech:'Python',</v>
       </c>
-      <c r="K15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!L15)</f>
-        <v>tech:'JavaScript',</v>
-      </c>
-      <c r="L15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!M15)</f>
-        <v>tech:'HTML5',</v>
-      </c>
-      <c r="M15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!N15)</f>
-        <v>tech:'HTML5',</v>
-      </c>
-      <c r="N15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!O15)</f>
-        <v>tech:'HTML5',</v>
-      </c>
-      <c r="O15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!P15)</f>
-        <v>tech:'HTML5',</v>
-      </c>
-      <c r="P15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!Q15)</f>
-        <v>tech:'HTML5',</v>
-      </c>
-      <c r="Q15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!R15)</f>
-        <v>tech:'SQL',</v>
-      </c>
-      <c r="R15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!S15)</f>
-        <v>tech:'Flask',</v>
-      </c>
-      <c r="S15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!T15)</f>
-        <v>tech:'Django',</v>
-      </c>
-      <c r="T15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!U15)</f>
-        <v>tech:'NoSQL',</v>
-      </c>
-      <c r="U15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!V15)</f>
-        <v>tech:'Python',</v>
-      </c>
       <c r="V15" t="str">
-        <f>CONCATENATE(Sheet3!$A15,Sheet3!W15)</f>
+        <f>CONCATENATE('Document Data'!$A15,'Document Data'!W15)</f>
         <v>tech:'JavaScript',</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!B16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!B16)</f>
         <v>quoteStatus: "open",</v>
       </c>
       <c r="B16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!C16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!C16)</f>
         <v>quoteStatus: "closed",</v>
       </c>
       <c r="C16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!D16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!D16)</f>
         <v>quoteStatus: "pending",</v>
       </c>
       <c r="D16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!E16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!E16)</f>
         <v>quoteStatus: "open",</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!F16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!F16)</f>
         <v>quoteStatus: "closed",</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!G16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!G16)</f>
         <v>quoteStatus: "pending",</v>
       </c>
       <c r="G16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!H16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!H16)</f>
         <v>quoteStatus: "open",</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!I16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!I16)</f>
         <v>quoteStatus: "closed",</v>
       </c>
       <c r="I16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!J16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!J16)</f>
         <v>quoteStatus: "pending",</v>
       </c>
       <c r="J16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!K16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!K16)</f>
         <v>quoteStatus: "open",</v>
       </c>
       <c r="K16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!L16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!L16)</f>
         <v>quoteStatus: "closed",</v>
       </c>
       <c r="L16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!M16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!M16)</f>
         <v>quoteStatus: "pending",</v>
       </c>
       <c r="M16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!N16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!N16)</f>
         <v>quoteStatus: "pending",</v>
       </c>
       <c r="N16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!O16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!O16)</f>
         <v>quoteStatus: "pending",</v>
       </c>
       <c r="O16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!P16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!P16)</f>
         <v>quoteStatus: "pending",</v>
       </c>
       <c r="P16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!Q16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!Q16)</f>
         <v>quoteStatus: "closed",</v>
       </c>
       <c r="Q16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!R16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!R16)</f>
         <v>quoteStatus: "pending",</v>
       </c>
       <c r="R16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!S16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!S16)</f>
         <v>quoteStatus: "open",</v>
       </c>
       <c r="S16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!T16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!T16)</f>
         <v>quoteStatus: "closed",</v>
       </c>
       <c r="T16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!U16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!U16)</f>
         <v>quoteStatus: "pending",</v>
       </c>
       <c r="U16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!V16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!V16)</f>
         <v>quoteStatus: "open",</v>
       </c>
       <c r="V16" t="str">
-        <f>CONCATENATE(Sheet3!$A16,Sheet3!W16)</f>
+        <f>CONCATENATE('Document Data'!$A16,'Document Data'!W16)</f>
         <v>quoteStatus: "closed",</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!B17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!B17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="B17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!C17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!C17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="C17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!D17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!D17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!E17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!E17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!F17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!F17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="F17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!G17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!G17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="G17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!H17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!H17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!I17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!I17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="I17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!J17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!J17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="J17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!K17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!K17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="K17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!L17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!L17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="L17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!M17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!M17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="M17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!N17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!N17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="N17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!O17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!O17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="O17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!P17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!P17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="P17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!Q17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!Q17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="Q17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!R17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!R17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="R17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!S17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!S17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="S17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!T17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!T17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="T17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!U17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!U17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="U17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!V17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!V17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
       <c r="V17" t="str">
-        <f>CONCATENATE(Sheet3!$A17,Sheet3!W17)</f>
+        <f>CONCATENATE('Document Data'!$A17,'Document Data'!W17)</f>
         <v>quoteDetails: "send me a quote that will meet my requirements",</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!B18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!B18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="B18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!C18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!C18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="C18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!D18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!D18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="D18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!E18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!E18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!F18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!F18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="F18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!G18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!G18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="G18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!H18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!H18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!I18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!I18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="I18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!J18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!J18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="J18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!K18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!K18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="K18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!L18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!L18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="L18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!M18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!M18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="M18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!N18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!N18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="N18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!O18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!O18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="O18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!P18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!P18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="P18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!Q18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!Q18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="Q18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!R18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!R18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="R18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!S18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!S18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="S18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!T18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!T18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="T18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!U18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!U18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="U18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!V18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!V18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
       <c r="V18" t="str">
-        <f>CONCATENATE(Sheet3!$A18,Sheet3!W18)</f>
+        <f>CONCATENATE('Document Data'!$A18,'Document Data'!W18)</f>
         <v>quoteResponse: "sending the standard response",</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!B19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!B19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="B19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!C19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!C19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="C19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!D19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!D19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="D19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!E19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!E19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!F19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!F19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="F19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!G19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!G19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="G19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!H19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!H19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!I19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!I19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="I19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!J19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!J19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="J19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!K19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!K19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="K19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!L19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!L19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="L19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!M19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!M19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="M19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!N19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!N19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="N19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!O19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!O19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="O19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!P19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!P19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="P19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!Q19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!Q19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="Q19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!R19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!R19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="R19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!S19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!S19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="S19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!T19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!T19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="T19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!U19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!U19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="U19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!V19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!V19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
       <c r="V19" t="str">
-        <f>CONCATENATE(Sheet3!$A19,Sheet3!W19)</f>
+        <f>CONCATENATE('Document Data'!$A19,'Document Data'!W19)</f>
         <v>assignedTo: "Joe ryan",</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!B20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!B20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="B20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!C20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!C20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="C20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!D20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!D20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="D20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!E20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!E20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="E20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!F20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!F20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="F20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!G20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!G20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="G20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!H20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!H20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!I20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!I20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="I20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!J20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!J20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="J20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!K20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!K20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="K20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!L20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!L20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="L20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!M20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!M20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="M20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!N20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!N20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="N20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!O20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!O20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="O20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!P20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!P20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="P20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!Q20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!Q20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="Q20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!R20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!R20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="R20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!S20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!S20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="S20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!T20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!T20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="T20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!U20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!U20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="U20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!V20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!V20)</f>
         <v>quoteCost:"50000",</v>
       </c>
       <c r="V20" t="str">
-        <f>CONCATENATE(Sheet3!$A20,Sheet3!W20)</f>
+        <f>CONCATENATE('Document Data'!$A20,'Document Data'!W20)</f>
         <v>quoteCost:"50000",</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!B21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!B21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="B21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!C21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!C21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="C21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!D21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!D21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="D21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!E21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!E21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="E21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!F21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!F21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="F21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!G21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!G21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="G21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!H21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!H21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!I21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!I21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="I21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!J21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!J21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="J21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!K21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!K21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="K21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!L21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!L21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="L21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!M21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!M21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="M21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!N21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!N21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="N21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!O21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!O21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="O21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!P21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!P21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="P21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!Q21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!Q21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="Q21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!R21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!R21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="R21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!S21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!S21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="S21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!T21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!T21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="T21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!U21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!U21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="U21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!V21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!V21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
       <c r="V21" t="str">
-        <f>CONCATENATE(Sheet3!$A21,Sheet3!W21)</f>
+        <f>CONCATENATE('Document Data'!$A21,'Document Data'!W21)</f>
         <v>quoteNeeds: "It needs this and that and a whole lot more",</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="str">
-        <f>Sheet3!D22</f>
+        <f>'Document Data'!D22</f>
         <v>});</v>
       </c>
       <c r="B22" t="str">
-        <f>Sheet3!E22</f>
+        <f>'Document Data'!E22</f>
         <v>});</v>
       </c>
       <c r="C22" t="str">
-        <f>Sheet3!F22</f>
+        <f>'Document Data'!F22</f>
         <v>});</v>
       </c>
       <c r="D22" t="str">
-        <f>Sheet3!G22</f>
+        <f>'Document Data'!G22</f>
         <v>});</v>
       </c>
       <c r="E22" t="str">
-        <f>Sheet3!H22</f>
+        <f>'Document Data'!H22</f>
         <v>});</v>
       </c>
       <c r="F22" t="str">
-        <f>Sheet3!I22</f>
+        <f>'Document Data'!I22</f>
         <v>});</v>
       </c>
       <c r="G22" t="str">
-        <f>Sheet3!J22</f>
+        <f>'Document Data'!J22</f>
         <v>});</v>
       </c>
       <c r="H22" t="str">
-        <f>Sheet3!K22</f>
+        <f>'Document Data'!K22</f>
         <v>});</v>
       </c>
       <c r="I22" t="str">
-        <f>Sheet3!L22</f>
+        <f>'Document Data'!L22</f>
         <v>});</v>
       </c>
       <c r="J22" t="str">
-        <f>Sheet3!M22</f>
+        <f>'Document Data'!M22</f>
         <v>});</v>
       </c>
       <c r="K22" t="str">
-        <f>Sheet3!N22</f>
+        <f>'Document Data'!N22</f>
         <v>});</v>
       </c>
       <c r="L22" t="str">
-        <f>Sheet3!O22</f>
+        <f>'Document Data'!O22</f>
         <v>});</v>
       </c>
       <c r="M22" t="str">
-        <f>Sheet3!P22</f>
+        <f>'Document Data'!P22</f>
         <v>});</v>
       </c>
       <c r="N22" t="str">
-        <f>Sheet3!Q22</f>
+        <f>'Document Data'!Q22</f>
         <v>});</v>
       </c>
       <c r="O22" t="str">
-        <f>Sheet3!R22</f>
+        <f>'Document Data'!R22</f>
         <v>});</v>
       </c>
       <c r="P22" t="str">
-        <f>Sheet3!S22</f>
+        <f>'Document Data'!S22</f>
         <v>});</v>
       </c>
       <c r="Q22" t="str">
-        <f>Sheet3!T22</f>
+        <f>'Document Data'!T22</f>
         <v>});</v>
       </c>
       <c r="R22" t="str">
-        <f>Sheet3!U22</f>
+        <f>'Document Data'!U22</f>
         <v>});</v>
       </c>
       <c r="S22" t="str">
-        <f>Sheet3!V22</f>
+        <f>'Document Data'!V22</f>
         <v>});</v>
       </c>
       <c r="T22" t="str">
-        <f>Sheet3!W22</f>
+        <f>'Document Data'!W22</f>
         <v>});</v>
       </c>
       <c r="U22" t="str">
@@ -5606,6 +5799,12 @@
       <c r="V22" t="str">
         <f>U22</f>
         <v>});</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="272" customHeight="1">
+      <c r="A27" s="13" t="str">
+        <f>CONCATENATE(A1,A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12,A13,A14,A15,A16,A17,A18,A19,A20,A21,A22)</f>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:cars = ["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"] quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
     </row>
   </sheetData>
@@ -5621,1058 +5820,708 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A144"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="str">
-        <f>Sheet4!B1</f>
-        <v>coll.insert({</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="str">
-        <f>Sheet4!B2</f>
-        <v>quoteId:' "2",',</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="str">
-        <f>Sheet4!B3</f>
-        <v>name: "Mr. Smith",</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="str">
-        <f>Sheet4!B4</f>
-        <v>email:"random@email.com",</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="str">
-        <f>Sheet4!B5</f>
-        <v>phone: "0868090777",</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="str">
-        <f>Sheet4!B6</f>
-        <v>rankQuality:  "Medium",</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="str">
-        <f>Sheet4!B7</f>
-        <v>rankTime:"Low",</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="str">
-        <f>Sheet4!B8</f>
-        <v>rankCost: "Medium",</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="str">
-        <f>Sheet4!B10</f>
-        <v>expectedDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="str">
-        <f>Sheet4!B11</f>
-        <v>liveDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="str">
-        <f>Sheet4!B12</f>
-        <v>budget: "5000",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="str">
-        <f>Sheet4!B13</f>
-        <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="str">
-        <f>Sheet4!B14</f>
-        <v>typeDev:'Native Mobile Application (iOS)',</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="str">
-        <f>Sheet4!B15</f>
-        <v>tech:'Django',</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="str">
-        <f>Sheet4!B16</f>
-        <v>quoteStatus: "closed",</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="str">
-        <f>Sheet4!B17</f>
-        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="str">
-        <f>Sheet4!B18</f>
-        <v>quoteResponse: "sending the standard response",</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="str">
-        <f>Sheet4!B22</f>
-        <v>});</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="str">
-        <f>Sheet4!C1</f>
-        <v>coll.insert({</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="str">
-        <f>Sheet4!C2</f>
-        <v>quoteId:' "3",',</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="str">
-        <f>Sheet4!C3</f>
-        <v>name: "Mr. Ross",</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="str">
-        <f>Sheet4!C4</f>
-        <v>email:"random@email.com",</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="str">
-        <f>Sheet4!C5</f>
-        <v>phone: "0868090777",</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="str">
-        <f>Sheet4!C6</f>
-        <v>rankQuality:  "High",</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="str">
-        <f>Sheet4!C7</f>
-        <v>rankTime: "Medium",</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="str">
-        <f>Sheet4!C8</f>
-        <v>rankCost:"Low",</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="str">
-        <f>Sheet4!C10</f>
-        <v>expectedDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="str">
-        <f>Sheet4!C11</f>
-        <v>liveDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="str">
-        <f>Sheet4!C12</f>
-        <v>budget: "10000",</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="str">
-        <f>Sheet4!C13</f>
-        <v>brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="str">
-        <f>Sheet4!C14</f>
-        <v>typeDev:'E-Commerce Web Development',</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="str">
-        <f>Sheet4!C15</f>
-        <v>tech:'NoSQL',</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="str">
-        <f>Sheet4!C16</f>
-        <v>quoteStatus: "pending",</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="str">
-        <f>Sheet4!C17</f>
-        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="str">
-        <f>Sheet4!C18</f>
-        <v>quoteResponse: "sending the standard response",</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="str">
-        <f>Sheet4!C22</f>
-        <v>});</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="str">
-        <f>Sheet4!D1</f>
-        <v>coll.insert({</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="str">
-        <f>Sheet4!D2</f>
-        <v>quoteId:' "4",',</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="str">
-        <f>Sheet4!D3</f>
-        <v>name: "ciaran",</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="str">
-        <f>Sheet4!D4</f>
-        <v>email:"random@email.com",</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="str">
-        <f>Sheet4!D5</f>
-        <v>phone: "0868090777",</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="str">
-        <f>Sheet4!D6</f>
-        <v>rankQuality:  "High",</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="str">
-        <f>Sheet4!D7</f>
-        <v>rankTime: "High",</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="str">
-        <f>Sheet4!D8</f>
-        <v>rankCost: "Medium",</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="str">
-        <f>Sheet4!D10</f>
-        <v>expectedDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="str">
-        <f>Sheet4!D11</f>
-        <v>liveDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="str">
-        <f>Sheet4!D12</f>
-        <v>budget: "4000",</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="str">
-        <f>Sheet4!D13</f>
-        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="str">
-        <f>Sheet4!D14</f>
-        <v>typeDev:'Database Architecture and Design',</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="str">
-        <f>Sheet4!D15</f>
-        <v>tech:'JavaScript',</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="str">
-        <f>Sheet4!D16</f>
-        <v>quoteStatus: "open",</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="str">
-        <f>Sheet4!D17</f>
-        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="str">
-        <f>Sheet4!D18</f>
-        <v>quoteResponse: "sending the standard response",</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="str">
-        <f>Sheet4!D22</f>
-        <v>});</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="str">
-        <f>Sheet4!E1</f>
-        <v>coll.insert({</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="str">
-        <f>Sheet4!E2</f>
-        <v>quoteId:' "5",',</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="str">
-        <f>Sheet4!E3</f>
-        <v>name: "Mr. Smith",</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="str">
-        <f>Sheet4!E4</f>
-        <v>email:"random@email.com",</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="str">
-        <f>Sheet4!E5</f>
-        <v>phone: "0868090777",</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="str">
-        <f>Sheet4!E6</f>
-        <v>rankQuality: "Low",</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="str">
-        <f>Sheet4!E7</f>
-        <v>rankTime: "Medium",</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="str">
-        <f>Sheet4!E8</f>
-        <v>rankCost: "High",</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="str">
-        <f>Sheet4!E10</f>
-        <v>expectedDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="str">
-        <f>Sheet4!E11</f>
-        <v>liveDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="str">
-        <f>Sheet4!E12</f>
-        <v>budget: "5000",</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="str">
-        <f>Sheet4!E13</f>
-        <v>brief: "this is the detailed brief",</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="str">
-        <f>Sheet4!E14</f>
-        <v>typeDev:'Bespoke Software Platform',</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="str">
-        <f>Sheet4!E15</f>
-        <v>tech:'HTML5',</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="str">
-        <f>Sheet4!E16</f>
-        <v>quoteStatus: "closed",</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="str">
-        <f>Sheet4!E17</f>
-        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="str">
-        <f>Sheet4!E18</f>
-        <v>quoteResponse: "sending the standard response",</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="str">
-        <f>Sheet4!E22</f>
-        <v>});</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="str">
-        <f>Sheet4!F1</f>
-        <v>coll.insert({</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="str">
-        <f>Sheet4!F2</f>
-        <v>quoteId:' "6",',</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="str">
-        <f>Sheet4!F3</f>
-        <v>name: "Mr. Ross",</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="str">
-        <f>Sheet4!F4</f>
-        <v>email:"random@email.com",</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="str">
-        <f>Sheet4!F5</f>
-        <v>phone: "0868090777",</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="str">
-        <f>Sheet4!F6</f>
-        <v>rankQuality:  "Medium",</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="str">
-        <f>Sheet4!F7</f>
-        <v>rankTime:"Low",</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="str">
-        <f>Sheet4!F8</f>
-        <v>rankCost: "Medium",</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="str">
-        <f>Sheet4!F10</f>
-        <v>expectedDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="str">
-        <f>Sheet4!F11</f>
-        <v>liveDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="str">
-        <f>Sheet4!F12</f>
-        <v>budget: "10000",</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="str">
-        <f>Sheet4!F13</f>
-        <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="str">
-        <f>Sheet4!F14</f>
-        <v>typeDev:'Other:',</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="str">
-        <f>Sheet4!F15</f>
-        <v>tech:'SQL',</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="str">
-        <f>Sheet4!F16</f>
-        <v>quoteStatus: "pending",</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="str">
-        <f>Sheet4!F17</f>
-        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="str">
-        <f>Sheet4!F18</f>
-        <v>quoteResponse: "sending the standard response",</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="str">
-        <f>Sheet4!F22</f>
-        <v>});</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="str">
-        <f>Sheet4!G1</f>
-        <v>coll.insert({</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="str">
-        <f>Sheet4!G2</f>
-        <v>quoteId:' "7",',</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="str">
-        <f>Sheet4!G3</f>
-        <v>name: "ciaran",</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="str">
-        <f>Sheet4!G4</f>
-        <v>email:"random@email.com",</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="str">
-        <f>Sheet4!G5</f>
-        <v>phone: "0868090777",</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="str">
-        <f>Sheet4!G6</f>
-        <v>rankQuality:  "High",</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="str">
-        <f>Sheet4!G7</f>
-        <v>rankTime: "Medium",</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="str">
-        <f>Sheet4!G8</f>
-        <v>rankCost:"Low",</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="str">
-        <f>Sheet4!G10</f>
-        <v>expectedDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="str">
-        <f>Sheet4!G11</f>
-        <v>liveDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="str">
-        <f>Sheet4!G12</f>
-        <v>budget: "4000",</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="str">
-        <f>Sheet4!G13</f>
-        <v>brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="str">
-        <f>Sheet4!G14</f>
-        <v>typeDev:'Responsive Web Development (HTML5/JSON/REST)',</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="str">
-        <f>Sheet4!G15</f>
-        <v>tech:'Flask',</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="str">
-        <f>Sheet4!G16</f>
-        <v>quoteStatus: "open",</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="str">
-        <f>Sheet4!G17</f>
-        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="str">
-        <f>Sheet4!G18</f>
-        <v>quoteResponse: "sending the standard response",</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="str">
-        <f>Sheet4!G22</f>
-        <v>});</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="str">
-        <f>Sheet4!H1</f>
-        <v>coll.insert({</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="str">
-        <f>Sheet4!H2</f>
-        <v>quoteId:' "8",',</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="str">
-        <f>Sheet4!H3</f>
-        <v>name: "Mr. Smith",</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="str">
-        <f>Sheet4!H4</f>
-        <v>email:"random@email.com",</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="str">
-        <f>Sheet4!H5</f>
-        <v>phone: "0868090777",</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="str">
-        <f>Sheet4!H6</f>
-        <v>rankQuality:  "High",</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="str">
-        <f>Sheet4!H7</f>
-        <v>rankTime: "High",</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="str">
-        <f>Sheet4!H8</f>
-        <v>rankCost: "Medium",</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="str">
-        <f>Sheet4!H10</f>
-        <v>expectedDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="str">
-        <f>Sheet4!H11</f>
-        <v>liveDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="str">
-        <f>Sheet4!H12</f>
-        <v>budget: "5000",</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="str">
-        <f>Sheet4!H13</f>
-        <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="str">
-        <f>Sheet4!H14</f>
-        <v>typeDev:'Native Mobile Application (iOS)',</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="str">
-        <f>Sheet4!H15</f>
-        <v>tech:'Django',</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="str">
-        <f>Sheet4!H16</f>
-        <v>quoteStatus: "closed",</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="str">
-        <f>Sheet4!H17</f>
-        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="str">
-        <f>Sheet4!H18</f>
-        <v>quoteResponse: "sending the standard response",</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="str">
-        <f>Sheet4!H22</f>
-        <v>});</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="str">
-        <f>Sheet4!I1</f>
-        <v>coll.insert({</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="str">
-        <f>Sheet4!I2</f>
-        <v>quoteId:' "9",',</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="str">
-        <f>Sheet4!I3</f>
-        <v>name: "Mr. Ross",</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="str">
-        <f>Sheet4!I4</f>
-        <v>email:"random@email.com",</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="str">
-        <f>Sheet4!I5</f>
-        <v>phone: "0868090777",</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="str">
-        <f>Sheet4!I6</f>
-        <v>rankQuality: "Low",</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="str">
-        <f>Sheet4!I7</f>
-        <v>rankTime:"Low",</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="str">
-        <f>Sheet4!I8</f>
-        <v>rankCost: "High",</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="str">
-        <f>Sheet4!I10</f>
-        <v>expectedDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="str">
-        <f>Sheet4!I11</f>
-        <v>liveDate: "01/09/2019",</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="str">
-        <f>Sheet4!I12</f>
-        <v>budget: "10000",</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="str">
-        <f>Sheet4!I13</f>
-        <v>brief: "this is the detailed brief",</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="str">
-        <f>Sheet4!I14</f>
-        <v>typeDev:'E-Commerce Web Development',</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="str">
-        <f>Sheet4!I15</f>
-        <v>tech:'NoSQL',</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="str">
-        <f>Sheet4!I16</f>
-        <v>quoteStatus: "pending",</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="str">
-        <f>Sheet4!I17</f>
-        <v>quoteDetails: "send me a quote that will meet my requirements",</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="str">
-        <f>Sheet4!I18</f>
-        <v>quoteResponse: "sending the standard response",</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="str">
-        <f>Sheet4!I22</f>
-        <v>});</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="13" customFormat="1" ht="409">
-      <c r="A1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!A1,Sheet4!A2,Sheet4!A3,Sheet4!A4,Sheet4!A5,Sheet4!A6,Sheet4!A7,Sheet4!A8,Sheet4!A9,Sheet4!A10,Sheet4!A11,Sheet4!A12,Sheet4!A13,Sheet4!A14,Sheet4!A15,Sheet4!A16,Sheet4!A17,Sheet4!A18,Sheet4!A19,Sheet4!A20,Sheet4!A21,Sheet4!A22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="B1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!B1,Sheet4!B2,Sheet4!B3,Sheet4!B4,Sheet4!B5,Sheet4!B6,Sheet4!B7,Sheet4!B8,Sheet4!B9,Sheet4!B10,Sheet4!B11,Sheet4!B12,Sheet4!B13,Sheet4!B14,Sheet4!B15,Sheet4!B16,Sheet4!B17,Sheet4!B18,Sheet4!B19,Sheet4!B20,Sheet4!B21,Sheet4!B22)</f>
-        <v>coll.insert({quoteId:' "2",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="C1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!C1,Sheet4!C2,Sheet4!C3,Sheet4!C4,Sheet4!C5,Sheet4!C6,Sheet4!C7,Sheet4!C8,Sheet4!C9,Sheet4!C10,Sheet4!C11,Sheet4!C12,Sheet4!C13,Sheet4!C14,Sheet4!C15,Sheet4!C16,Sheet4!C17,Sheet4!C18,Sheet4!C19,Sheet4!C20,Sheet4!C21,Sheet4!C22)</f>
-        <v>coll.insert({quoteId:' "3",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'E-Commerce Web Development',tech:'NoSQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="D1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!D1,Sheet4!D2,Sheet4!D3,Sheet4!D4,Sheet4!D5,Sheet4!D6,Sheet4!D7,Sheet4!D8,Sheet4!D9,Sheet4!D10,Sheet4!D11,Sheet4!D12,Sheet4!D13,Sheet4!D14,Sheet4!D15,Sheet4!D16,Sheet4!D17,Sheet4!D18,Sheet4!D19,Sheet4!D20,Sheet4!D21,Sheet4!D22)</f>
-        <v>coll.insert({quoteId:' "4",',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="E1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!E1,Sheet4!E2,Sheet4!E3,Sheet4!E4,Sheet4!E5,Sheet4!E6,Sheet4!E7,Sheet4!E8,Sheet4!E9,Sheet4!E10,Sheet4!E11,Sheet4!E12,Sheet4!E13,Sheet4!E14,Sheet4!E15,Sheet4!E16,Sheet4!E17,Sheet4!E18,Sheet4!E19,Sheet4!E20,Sheet4!E21,Sheet4!E22)</f>
-        <v>coll.insert({quoteId:' "5",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "this is the detailed brief",typeDev:'Bespoke Software Platform',tech:'HTML5',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="F1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!F1,Sheet4!F2,Sheet4!F3,Sheet4!F4,Sheet4!F5,Sheet4!F6,Sheet4!F7,Sheet4!F8,Sheet4!F9,Sheet4!F10,Sheet4!F11,Sheet4!F12,Sheet4!F13,Sheet4!F14,Sheet4!F15,Sheet4!F16,Sheet4!F17,Sheet4!F18,Sheet4!F19,Sheet4!F20,Sheet4!F21,Sheet4!F22)</f>
-        <v>coll.insert({quoteId:' "6",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Other:',tech:'SQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="G1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!G1,Sheet4!G2,Sheet4!G3,Sheet4!G4,Sheet4!G5,Sheet4!G6,Sheet4!G7,Sheet4!G8,Sheet4!G9,Sheet4!G10,Sheet4!G11,Sheet4!G12,Sheet4!G13,Sheet4!G14,Sheet4!G15,Sheet4!G16,Sheet4!G17,Sheet4!G18,Sheet4!G19,Sheet4!G20,Sheet4!G21,Sheet4!G22)</f>
-        <v>coll.insert({quoteId:' "7",',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="H1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!H1,Sheet4!H2,Sheet4!H3,Sheet4!H4,Sheet4!H5,Sheet4!H6,Sheet4!H7,Sheet4!H8,Sheet4!H9,Sheet4!H10,Sheet4!H11,Sheet4!H12,Sheet4!H13,Sheet4!H14,Sheet4!H15,Sheet4!H16,Sheet4!H17,Sheet4!H18,Sheet4!H19,Sheet4!H20,Sheet4!H21,Sheet4!H22)</f>
-        <v>coll.insert({quoteId:' "8",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="I1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!I1,Sheet4!I2,Sheet4!I3,Sheet4!I4,Sheet4!I5,Sheet4!I6,Sheet4!I7,Sheet4!I8,Sheet4!I9,Sheet4!I10,Sheet4!I11,Sheet4!I12,Sheet4!I13,Sheet4!I14,Sheet4!I15,Sheet4!I16,Sheet4!I17,Sheet4!I18,Sheet4!I19,Sheet4!I20,Sheet4!I21,Sheet4!I22)</f>
-        <v>coll.insert({quoteId:' "9",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime:"Low",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "this is the detailed brief",typeDev:'E-Commerce Web Development',tech:'NoSQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="J1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!J1,Sheet4!J2,Sheet4!J3,Sheet4!J4,Sheet4!J5,Sheet4!J6,Sheet4!J7,Sheet4!J8,Sheet4!J9,Sheet4!J10,Sheet4!J11,Sheet4!J12,Sheet4!J13,Sheet4!J14,Sheet4!J15,Sheet4!J16,Sheet4!J17,Sheet4!J18,Sheet4!J19,Sheet4!J20,Sheet4!J21,Sheet4!J22)</f>
-        <v>coll.insert({quoteId:' "10",',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost:"Low",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Database Architecture and Design',tech:'Python',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="K1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!K1,Sheet4!K2,Sheet4!K3,Sheet4!K4,Sheet4!K5,Sheet4!K6,Sheet4!K7,Sheet4!K8,Sheet4!K9,Sheet4!K10,Sheet4!K11,Sheet4!K12,Sheet4!K13,Sheet4!K14,Sheet4!K15,Sheet4!K16,Sheet4!K17,Sheet4!K18,Sheet4!K19,Sheet4!K20,Sheet4!K21,Sheet4!K22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Bespoke Software Platform',tech:'JavaScript',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="L1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!L1,Sheet4!L2,Sheet4!L3,Sheet4!L4,Sheet4!L5,Sheet4!L6,Sheet4!L7,Sheet4!L8,Sheet4!L9,Sheet4!L10,Sheet4!L11,Sheet4!L12,Sheet4!L13,Sheet4!L14,Sheet4!L15,Sheet4!L16,Sheet4!L17,Sheet4!L18,Sheet4!L19,Sheet4!L20,Sheet4!L21,Sheet4!L22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="M1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!M1,Sheet4!M2,Sheet4!M3,Sheet4!M4,Sheet4!M5,Sheet4!M6,Sheet4!M7,Sheet4!M8,Sheet4!M9,Sheet4!M10,Sheet4!M11,Sheet4!M12,Sheet4!M13,Sheet4!M14,Sheet4!M15,Sheet4!M16,Sheet4!M17,Sheet4!M18,Sheet4!M19,Sheet4!M20,Sheet4!M21,Sheet4!M22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="N1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!N1,Sheet4!N2,Sheet4!N3,Sheet4!N4,Sheet4!N5,Sheet4!N6,Sheet4!N7,Sheet4!N8,Sheet4!N9,Sheet4!N10,Sheet4!N11,Sheet4!N12,Sheet4!N13,Sheet4!N14,Sheet4!N15,Sheet4!N16,Sheet4!N17,Sheet4!N18,Sheet4!N19,Sheet4!N20,Sheet4!N21,Sheet4!N22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="O1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!O1,Sheet4!O2,Sheet4!O3,Sheet4!O4,Sheet4!O5,Sheet4!O6,Sheet4!O7,Sheet4!O8,Sheet4!O9,Sheet4!O10,Sheet4!O11,Sheet4!O12,Sheet4!O13,Sheet4!O14,Sheet4!O15,Sheet4!O16,Sheet4!O17,Sheet4!O18,Sheet4!O19,Sheet4!O20,Sheet4!O21,Sheet4!O22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'HTML5',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="P1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!P1,Sheet4!P2,Sheet4!P3,Sheet4!P4,Sheet4!P5,Sheet4!P6,Sheet4!P7,Sheet4!P8,Sheet4!P9,Sheet4!P10,Sheet4!P11,Sheet4!P12,Sheet4!P13,Sheet4!P14,Sheet4!P15,Sheet4!P16,Sheet4!P17,Sheet4!P18,Sheet4!P19,Sheet4!P20,Sheet4!P21,Sheet4!P22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'HTML5',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="Q1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!Q1,Sheet4!Q2,Sheet4!Q3,Sheet4!Q4,Sheet4!Q5,Sheet4!Q6,Sheet4!Q7,Sheet4!Q8,Sheet4!Q9,Sheet4!Q10,Sheet4!Q11,Sheet4!Q12,Sheet4!Q13,Sheet4!Q14,Sheet4!Q15,Sheet4!Q16,Sheet4!Q17,Sheet4!Q18,Sheet4!Q19,Sheet4!Q20,Sheet4!Q21,Sheet4!Q22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'SQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="R1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!R1,Sheet4!R2,Sheet4!R3,Sheet4!R4,Sheet4!R5,Sheet4!R6,Sheet4!R7,Sheet4!R8,Sheet4!R9,Sheet4!R10,Sheet4!R11,Sheet4!R12,Sheet4!R13,Sheet4!R14,Sheet4!R15,Sheet4!R16,Sheet4!R17,Sheet4!R18,Sheet4!R19,Sheet4!R20,Sheet4!R21,Sheet4!R22)</f>
-        <v>coll.insert({quoteId: "1",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="S1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!S1,Sheet4!S2,Sheet4!S3,Sheet4!S4,Sheet4!S5,Sheet4!S6,Sheet4!S7,Sheet4!S8,Sheet4!S9,Sheet4!S10,Sheet4!S11,Sheet4!S12,Sheet4!S13,Sheet4!S14,Sheet4!S15,Sheet4!S16,Sheet4!S17,Sheet4!S18,Sheet4!S19,Sheet4!S20,Sheet4!S21,Sheet4!S22)</f>
-        <v>coll.insert({quoteId: "1",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="T1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!T1,Sheet4!T2,Sheet4!T3,Sheet4!T4,Sheet4!T5,Sheet4!T6,Sheet4!T7,Sheet4!T8,Sheet4!T9,Sheet4!T10,Sheet4!T11,Sheet4!T12,Sheet4!T13,Sheet4!T14,Sheet4!T15,Sheet4!T16,Sheet4!T17,Sheet4!T18,Sheet4!T19,Sheet4!T20,Sheet4!T21,Sheet4!T22)</f>
-        <v>coll.insert({quoteId: "1",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'NoSQL',quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="U1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!U1,Sheet4!U2,Sheet4!U3,Sheet4!U4,Sheet4!U5,Sheet4!U6,Sheet4!U7,Sheet4!U8,Sheet4!U9,Sheet4!U10,Sheet4!U11,Sheet4!U12,Sheet4!U13,Sheet4!U14,Sheet4!U15,Sheet4!U16,Sheet4!U17,Sheet4!U18,Sheet4!U19,Sheet4!U20,Sheet4!U21,Sheet4!U22)</f>
-        <v>coll.insert({quoteId: "1",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'E-Commerce Web Development',tech:'Python',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="V1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!V1,Sheet4!V2,Sheet4!V3,Sheet4!V4,Sheet4!V5,Sheet4!V6,Sheet4!V7,Sheet4!V8,Sheet4!V9,Sheet4!V10,Sheet4!V11,Sheet4!V12,Sheet4!V13,Sheet4!V14,Sheet4!V15,Sheet4!V16,Sheet4!V17,Sheet4!V18,Sheet4!V19,Sheet4!V20,Sheet4!V21,Sheet4!V22)</f>
-        <v>coll.insert({quoteId: "1",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-      <c r="W1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!W1,Sheet4!W2,Sheet4!W3,Sheet4!W4,Sheet4!W5,Sheet4!W6,Sheet4!W7,Sheet4!W8,Sheet4!W9,Sheet4!W10,Sheet4!W11,Sheet4!W12,Sheet4!W13,Sheet4!W14,Sheet4!W15,Sheet4!W16,Sheet4!W17,Sheet4!W18,Sheet4!W19,Sheet4!W20,Sheet4!W21,Sheet4!W22)</f>
-        <v/>
-      </c>
-      <c r="X1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!X1,Sheet4!X2,Sheet4!X3,Sheet4!X4,Sheet4!X5,Sheet4!X6,Sheet4!X7,Sheet4!X8,Sheet4!X9,Sheet4!X10,Sheet4!X11,Sheet4!X12,Sheet4!X13,Sheet4!X14,Sheet4!X15,Sheet4!X16,Sheet4!X17,Sheet4!X18,Sheet4!X19,Sheet4!X20,Sheet4!X21,Sheet4!X22)</f>
-        <v/>
-      </c>
-      <c r="Y1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!Y1,Sheet4!Y2,Sheet4!Y3,Sheet4!Y4,Sheet4!Y5,Sheet4!Y6,Sheet4!Y7,Sheet4!Y8,Sheet4!Y9,Sheet4!Y10,Sheet4!Y11,Sheet4!Y12,Sheet4!Y13,Sheet4!Y14,Sheet4!Y15,Sheet4!Y16,Sheet4!Y17,Sheet4!Y18,Sheet4!Y19,Sheet4!Y20,Sheet4!Y21,Sheet4!Y22)</f>
-        <v/>
-      </c>
-      <c r="Z1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!Z1,Sheet4!Z2,Sheet4!Z3,Sheet4!Z4,Sheet4!Z5,Sheet4!Z6,Sheet4!Z7,Sheet4!Z8,Sheet4!Z9,Sheet4!Z10,Sheet4!Z11,Sheet4!Z12,Sheet4!Z13,Sheet4!Z14,Sheet4!Z15,Sheet4!Z16,Sheet4!Z17,Sheet4!Z18,Sheet4!Z19,Sheet4!Z20,Sheet4!Z21,Sheet4!Z22)</f>
-        <v/>
-      </c>
-      <c r="AA1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!AA1,Sheet4!AA2,Sheet4!AA3,Sheet4!AA4,Sheet4!AA5,Sheet4!AA6,Sheet4!AA7,Sheet4!AA8,Sheet4!AA9,Sheet4!AA10,Sheet4!AA11,Sheet4!AA12,Sheet4!AA13,Sheet4!AA14,Sheet4!AA15,Sheet4!AA16,Sheet4!AA17,Sheet4!AA18,Sheet4!AA19,Sheet4!AA20,Sheet4!AA21,Sheet4!AA22)</f>
-        <v/>
-      </c>
-      <c r="AB1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!AB1,Sheet4!AB2,Sheet4!AB3,Sheet4!AB4,Sheet4!AB5,Sheet4!AB6,Sheet4!AB7,Sheet4!AB8,Sheet4!AB9,Sheet4!AB10,Sheet4!AB11,Sheet4!AB12,Sheet4!AB13,Sheet4!AB14,Sheet4!AB15,Sheet4!AB16,Sheet4!AB17,Sheet4!AB18,Sheet4!AB19,Sheet4!AB20,Sheet4!AB21,Sheet4!AB22)</f>
-        <v/>
-      </c>
-      <c r="AC1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!AC1,Sheet4!AC2,Sheet4!AC3,Sheet4!AC4,Sheet4!AC5,Sheet4!AC6,Sheet4!AC7,Sheet4!AC8,Sheet4!AC9,Sheet4!AC10,Sheet4!AC11,Sheet4!AC12,Sheet4!AC13,Sheet4!AC14,Sheet4!AC15,Sheet4!AC16,Sheet4!AC17,Sheet4!AC18,Sheet4!AC19,Sheet4!AC20,Sheet4!AC21,Sheet4!AC22)</f>
-        <v/>
-      </c>
-      <c r="AD1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!AD1,Sheet4!AD2,Sheet4!AD3,Sheet4!AD4,Sheet4!AD5,Sheet4!AD6,Sheet4!AD7,Sheet4!AD8,Sheet4!AD9,Sheet4!AD10,Sheet4!AD11,Sheet4!AD12,Sheet4!AD13,Sheet4!AD14,Sheet4!AD15,Sheet4!AD16,Sheet4!AD17,Sheet4!AD18,Sheet4!AD19,Sheet4!AD20,Sheet4!AD21,Sheet4!AD22)</f>
-        <v/>
-      </c>
-      <c r="AE1" s="13" t="str">
-        <f>CONCATENATE(Sheet4!AE1,Sheet4!AE2,Sheet4!AE3,Sheet4!AE4,Sheet4!AE5,Sheet4!AE6,Sheet4!AE7,Sheet4!AE8,Sheet4!AE9,Sheet4!AE10,Sheet4!AE11,Sheet4!AE12,Sheet4!AE13,Sheet4!AE14,Sheet4!AE15,Sheet4!AE16,Sheet4!AE17,Sheet4!AE18,Sheet4!AE19,Sheet4!AE20,Sheet4!AE21,Sheet4!AE22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="225">
-      <c r="A5" s="1" t="str">
-        <f>A1</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="225">
-      <c r="A6" s="1" t="str">
-        <f>B1</f>
-        <v>coll.insert({quoteId:' "2",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:'Django',quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1">
-        <f>A3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1">
-        <f t="shared" ref="A8:A9" si="0">B3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1">
+    <row r="1" spans="1:8">
+      <c r="A1" t="str">
+        <f>'Field Names'!A1</f>
+        <v>Collection</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'Field Names'!B1</f>
+        <v>field</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
+      <c r="A2" t="str">
+        <f>'Field Names'!A2</f>
+        <v>quote</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'Field Names'!B2</f>
+        <v>quoteId:</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>A2</f>
+        <v>quote</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(B2,LEN(B2)-1)</f>
+        <v>quoteId</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE(C2,D2,E2,F2,G2)</f>
+        <v>{{quote.quoteId}}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" t="str">
+        <f>'Field Names'!A3</f>
+        <v>quote</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'Field Names'!B3</f>
+        <v>name:</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="14" t="str">
+        <f t="shared" ref="D3:D23" si="0">A3</f>
+        <v>quote</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F23" si="1">LEFT(B3,LEN(B3)-1)</f>
+        <v>name</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H23" si="2">CONCATENATE(C3,D3,E3,F3,G3)</f>
+        <v>{{quote.name}}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" t="str">
+        <f>'Field Names'!A4</f>
+        <v>quote</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'Field Names'!B4</f>
+        <v>email:</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>quote</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>email</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.email}}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16">
+      <c r="A5" t="str">
+        <f>'Field Names'!A5</f>
+        <v>quote</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'Field Names'!B5</f>
+        <v>phone:</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>phone</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.phone}}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16">
+      <c r="A6" t="str">
+        <f>'Field Names'!A6</f>
+        <v>quote</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'Field Names'!B6</f>
+        <v>rankQuality:</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>rankQuality</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.rankQuality}}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16">
+      <c r="A7" t="str">
+        <f>'Field Names'!A7</f>
+        <v>quote</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'Field Names'!B7</f>
+        <v>rankTime:</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>rankTime</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.rankTime}}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16">
+      <c r="A8" t="str">
+        <f>'Field Names'!A8</f>
+        <v>quote</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'Field Names'!B8</f>
+        <v>rankCost:</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>rankCost</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.rankCost}}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16">
+      <c r="A9" t="str">
+        <f>'Field Names'!A9</f>
+        <v>quote</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'Field Names'!B9</f>
+        <v>levelQuality:</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>levelQuality</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.levelQuality}}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16">
+      <c r="A10" t="str">
+        <f>'Field Names'!A10</f>
+        <v>quote</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'Field Names'!B10</f>
+        <v>expectedDate:</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>expectedDate</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.expectedDate}}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16">
+      <c r="A11" t="str">
+        <f>'Field Names'!A11</f>
+        <v>quote</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'Field Names'!B11</f>
+        <v>liveDate:</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>liveDate</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.liveDate}}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16">
+      <c r="A12" t="str">
+        <f>'Field Names'!A12</f>
+        <v>quote</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'Field Names'!B12</f>
+        <v>budget:</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>budget</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.budget}}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16">
+      <c r="A13" t="str">
+        <f>'Field Names'!A13</f>
+        <v>quote</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'Field Names'!B13</f>
+        <v>brief:</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>brief</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.brief}}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16">
+      <c r="A14" t="str">
+        <f>'Field Names'!A14</f>
+        <v>quote</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'Field Names'!B14</f>
+        <v>typeDev:</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>typeDev</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.typeDev}}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16">
+      <c r="A15" t="str">
+        <f>'Field Names'!A15</f>
+        <v>quote</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'Field Names'!B15</f>
+        <v>tech:</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>tech</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.tech}}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16">
+      <c r="A16" t="str">
+        <f>'Field Names'!A16</f>
+        <v>quote</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'Field Names'!B16</f>
+        <v>quoteStatus:</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>quoteStatus</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.quoteStatus}}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16">
+      <c r="A17" t="str">
+        <f>'Field Names'!A17</f>
+        <v>quote</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'Field Names'!B17</f>
+        <v>quoteDetails:</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>quoteDetails</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.quoteDetails}}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16">
+      <c r="A18" t="str">
+        <f>'Field Names'!A18</f>
+        <v>quote</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'Field Names'!B18</f>
+        <v>quoteResponse:</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>quoteResponse</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.quoteResponse}}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16">
+      <c r="A19" t="str">
+        <f>'Field Names'!A19</f>
+        <v>quote</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'Field Names'!B19</f>
+        <v>assignedTo:</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>assignedTo</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.assignedTo}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16">
+      <c r="A20" t="str">
+        <f>'Field Names'!A20</f>
+        <v>quote</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'Field Names'!B20</f>
+        <v>quoteCost:</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>quoteCost</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.quoteCost}}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16">
+      <c r="A21" t="str">
+        <f>'Field Names'!A21</f>
+        <v>quote</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'Field Names'!B21</f>
+        <v>quoteNeeds:</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quote</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>quoteNeeds</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quote.quoteNeeds}}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16">
+      <c r="A22" t="str">
+        <f>'Field Names'!A22</f>
+        <v>status</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'Field Names'!B22</f>
+        <v>quoteStatus:</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>status</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>quoteStatus</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>{{status.quoteStatus}}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16">
+      <c r="A23" t="str">
+        <f>'Field Names'!A23</f>
+        <v>quotenumber</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'Field Names'!B23</f>
+        <v>quoteId:</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>quotenumber</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>quoteId</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>{{quotenumber.quoteId}}</v>
       </c>
     </row>
   </sheetData>

--- a/drafts/CRM-schema.xlsx
+++ b/drafts/CRM-schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Field Names" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">cars = ["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"] </t>
+    <t>["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="241">
+  <cellStyleXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -831,6 +831,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -976,7 +991,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="241">
+  <cellStyles count="256">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1151,6 +1166,21 @@
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1551,7 +1581,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2076,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3085,7 +3115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="76">
+    <row r="15" spans="1:24" ht="121">
       <c r="A15" s="11" t="s">
         <v>106</v>
       </c>
@@ -3093,19 +3123,19 @@
         <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>85</v>
@@ -3652,138 +3682,6 @@
       </c>
       <c r="W22" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="16">
-      <c r="B27" t="str">
-        <f>'Document Data'!$A$1</f>
-        <v>coll.insert({</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="16">
-      <c r="B28" t="str">
-        <f>CONCATENATE('Document Data'!$A28,"'",'Document Data'!C28,"',")</f>
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="16">
-      <c r="B29" t="str">
-        <f>CONCATENATE('Document Data'!$A29,'Document Data'!C29)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="16">
-      <c r="B30" t="str">
-        <f>CONCATENATE('Document Data'!$A30,'Document Data'!C30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="16">
-      <c r="B31" t="str">
-        <f>CONCATENATE('Document Data'!$A31,'Document Data'!C31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="16">
-      <c r="B32" t="str">
-        <f>CONCATENATE('Document Data'!$A32,'Document Data'!C32)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="16">
-      <c r="B33" t="str">
-        <f>CONCATENATE('Document Data'!$A33,'Document Data'!C33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="16">
-      <c r="B34" t="str">
-        <f>CONCATENATE('Document Data'!$A34,'Document Data'!C34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="16">
-      <c r="B35" t="str">
-        <f>CONCATENATE('Document Data'!$A35,'Document Data'!C35)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="16">
-      <c r="B36" t="str">
-        <f>CONCATENATE('Document Data'!$A36,'Document Data'!C36)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="16">
-      <c r="B37" t="str">
-        <f>CONCATENATE('Document Data'!$A37,'Document Data'!C37)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="16">
-      <c r="B38" t="str">
-        <f>CONCATENATE('Document Data'!$A38,'Document Data'!C38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="16">
-      <c r="B39" t="str">
-        <f>CONCATENATE('Document Data'!$A39,'Document Data'!C39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="16">
-      <c r="B40" t="str">
-        <f>CONCATENATE('Document Data'!$A40,'Document Data'!C40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="16">
-      <c r="B41" t="str">
-        <f>CONCATENATE('Document Data'!$A41,'Document Data'!C41)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="16">
-      <c r="B42" t="str">
-        <f>CONCATENATE('Document Data'!$A42,'Document Data'!C42)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="16">
-      <c r="B43" t="str">
-        <f>CONCATENATE('Document Data'!$A43,'Document Data'!C43)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="16">
-      <c r="B44" t="str">
-        <f>CONCATENATE('Document Data'!$A44,'Document Data'!C44)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="16">
-      <c r="B45" t="str">
-        <f>CONCATENATE('Document Data'!$A45,'Document Data'!C45)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="16">
-      <c r="B46" t="str">
-        <f>CONCATENATE('Document Data'!$A46,'Document Data'!C46)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="16">
-      <c r="B47" t="str">
-        <f>CONCATENATE('Document Data'!$A47,'Document Data'!C47)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="16">
-      <c r="B48">
-        <f>'Document Data'!E48</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3815,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="66.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5084,27 +4982,27 @@
     <row r="15" spans="1:22">
       <c r="A15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!B15)</f>
-        <v xml:space="preserve">tech:cars = ["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"] </v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="B15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!C15)</f>
-        <v>tech:'Django',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="C15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!D15)</f>
-        <v>tech:'NoSQL',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="D15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!E15)</f>
-        <v>tech:'JavaScript',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="E15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!F15)</f>
-        <v>tech:'HTML5',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="F15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!G15)</f>
-        <v>tech:'SQL',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="G15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!H15)</f>
@@ -5804,7 +5702,31 @@
     <row r="27" spans="1:22" ht="272" customHeight="1">
       <c r="A27" s="13" t="str">
         <f>CONCATENATE(A1,A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12,A13,A14,A15,A16,A17,A18,A19,A20,A21,A22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:cars = ["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"] quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="B27" s="13" t="str">
+        <f>CONCATENATE(B1,B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22)</f>
+        <v>coll.insert({quoteId:' "2",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="C27" s="13" t="str">
+        <f t="shared" ref="C27:G27" si="0">CONCATENATE(C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22)</f>
+        <v>coll.insert({quoteId:' "3",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="D27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "4",',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="E27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "5",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "this is the detailed brief",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="F27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "6",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="G27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "7",',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
     </row>
   </sheetData>

--- a/drafts/CRM-schema.xlsx
+++ b/drafts/CRM-schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Field Names" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Document Data" sheetId="3" r:id="rId3"/>
     <sheet name="JSON" sheetId="4" r:id="rId4"/>
     <sheet name="variables" sheetId="8" r:id="rId5"/>
+    <sheet name="Form" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Field Names'!$A$1:$I$23</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="274">
   <si>
     <t>Your name, please? *</t>
   </si>
@@ -190,9 +191,6 @@
     <t>"Mr. Smith",</t>
   </si>
   <si>
-    <t>"ciaran",</t>
-  </si>
-  <si>
     <t>"Mr. Ross",</t>
   </si>
   <si>
@@ -211,9 +209,6 @@
     <t>"this is the detailed brief",</t>
   </si>
   <si>
-    <t>"open",</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "send me a quote that will meet my requirements",</t>
   </si>
   <si>
@@ -230,12 +225,6 @@
   </si>
   <si>
     <t>"This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</t>
-  </si>
-  <si>
-    <t>"closed",</t>
-  </si>
-  <si>
-    <t>"pending",</t>
   </si>
   <si>
     <t>});</t>
@@ -582,12 +571,382 @@
   <si>
     <t>["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</t>
   </si>
+  <si>
+    <t>"OPEN",</t>
+  </si>
+  <si>
+    <t>"CLOSED",</t>
+  </si>
+  <si>
+    <t>"PENDING",</t>
+  </si>
+  <si>
+    <t>"WAITING FOR INFO",</t>
+  </si>
+  <si>
+    <t>"DELAYED",</t>
+  </si>
+  <si>
+    <t>&lt;input id="</t>
+  </si>
+  <si>
+    <t>quote_name</t>
+  </si>
+  <si>
+    <t>placeholder="</t>
+  </si>
+  <si>
+    <t>&lt;label for="</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/label&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type="text" class="validate" </t>
+  </si>
+  <si>
+    <t>Your Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" </t>
+  </si>
+  <si>
+    <t>{{quote.quoteId}}</t>
+  </si>
+  <si>
+    <t>{{quote.name}}</t>
+  </si>
+  <si>
+    <t>{{quote.email}}</t>
+  </si>
+  <si>
+    <t>{{quote.phone}}</t>
+  </si>
+  <si>
+    <t>{{quote.rankQuality}}</t>
+  </si>
+  <si>
+    <t>{{quote.rankTime}}</t>
+  </si>
+  <si>
+    <t>{{quote.rankCost}}</t>
+  </si>
+  <si>
+    <t>{{quote.levelQuality}}</t>
+  </si>
+  <si>
+    <t>{{quote.expectedDate}}</t>
+  </si>
+  <si>
+    <t>{{quote.liveDate}}</t>
+  </si>
+  <si>
+    <t>{{quote.budget}}</t>
+  </si>
+  <si>
+    <t>{{quote.brief}}</t>
+  </si>
+  <si>
+    <t>{{quote.typeDev}}</t>
+  </si>
+  <si>
+    <t>{{quote.tech[i]}}</t>
+  </si>
+  <si>
+    <t>{{quote.quoteStatus}}</t>
+  </si>
+  <si>
+    <t>{{quote.quoteDetails}}</t>
+  </si>
+  <si>
+    <t>{{quote.quoteResponse}}</t>
+  </si>
+  <si>
+    <t>{{quote.assignedTo}}</t>
+  </si>
+  <si>
+    <t>{{quote.quoteCost}}</t>
+  </si>
+  <si>
+    <t>{{quote.quoteNeeds}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> value="</t>
+  </si>
+  <si>
+    <t>"&gt;</t>
+  </si>
+  <si>
+    <t>"name="</t>
+  </si>
+  <si>
+    <t>quote_phone</t>
+  </si>
+  <si>
+    <t>quote_id</t>
+  </si>
+  <si>
+    <t>quote_email</t>
+  </si>
+  <si>
+    <t>quote_rankquality</t>
+  </si>
+  <si>
+    <t>quote_rankcost</t>
+  </si>
+  <si>
+    <t>quote_ranktime</t>
+  </si>
+  <si>
+    <t>quote_expectedquality</t>
+  </si>
+  <si>
+    <t>quote_livedate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quote_budget </t>
+  </si>
+  <si>
+    <t>quote_typedev</t>
+  </si>
+  <si>
+    <t>quote_tech</t>
+  </si>
+  <si>
+    <t>quote_quotestatus</t>
+  </si>
+  <si>
+    <t>quote_brief</t>
+  </si>
+  <si>
+    <t>quote_response</t>
+  </si>
+  <si>
+    <t>quote_person</t>
+  </si>
+  <si>
+    <t>quote_cost</t>
+  </si>
+  <si>
+    <t>quote_needs</t>
+  </si>
+  <si>
+    <t>Quote Id</t>
+  </si>
+  <si>
+    <t>Your Full Name</t>
+  </si>
+  <si>
+    <t>Your email address</t>
+  </si>
+  <si>
+    <t>Rank your expected Quality level</t>
+  </si>
+  <si>
+    <t>Rank your expected time level</t>
+  </si>
+  <si>
+    <t>Rank your expected Cost level</t>
+  </si>
+  <si>
+    <t>YourLevel of Quality</t>
+  </si>
+  <si>
+    <t>Your Expected Delivery Date</t>
+  </si>
+  <si>
+    <t>Your Expected Libe Date</t>
+  </si>
+  <si>
+    <t>Your Budget</t>
+  </si>
+  <si>
+    <t>quote_details</t>
+  </si>
+  <si>
+    <t>Our Detailed Response to the Customers Brief</t>
+  </si>
+  <si>
+    <t>Our List of  resources needed</t>
+  </si>
+  <si>
+    <t>Our Detailed costings to the Customers Brief</t>
+  </si>
+  <si>
+    <t>Our Person assigned to this project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Detailed Response to the Customers </t>
+  </si>
+  <si>
+    <t>The Status of the Quote</t>
+  </si>
+  <si>
+    <t>Technololy</t>
+  </si>
+  <si>
+    <t>The Type of Development required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please Detail you project brief </t>
+  </si>
+  <si>
+    <t>quote_expecteddate</t>
+  </si>
+  <si>
+    <t>" name= "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" type="text" class="validate" </t>
+  </si>
+  <si>
+    <t>placeholder= "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> value= "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" type="text" class="form-control" </t>
+  </si>
+  <si>
+    <t>&lt;div class="form-group"&gt; &lt;input id= "</t>
+  </si>
+  <si>
+    <t>"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="form-group"&gt;&lt;span&gt;&lt;i class="fa fa-envelope-o bigicon"&gt;
+                Please enter your email so we can reply to you&lt;/i&gt;&lt;/span&gt; &lt;input id= "</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>quoteNeeds</t>
+  </si>
+  <si>
+    <t>quoteId</t>
+  </si>
+  <si>
+    <t>rankQuality</t>
+  </si>
+  <si>
+    <t>rankTime</t>
+  </si>
+  <si>
+    <t>rankCost</t>
+  </si>
+  <si>
+    <t>levelQuality</t>
+  </si>
+  <si>
+    <t>expectedDate</t>
+  </si>
+  <si>
+    <t>liveDate</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>typeDev</t>
+  </si>
+  <si>
+    <t>quoteStatus</t>
+  </si>
+  <si>
+    <t>quoteDetails</t>
+  </si>
+  <si>
+    <t>quoteResponse</t>
+  </si>
+  <si>
+    <t>assignedTo</t>
+  </si>
+  <si>
+    <t>quoteCost</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>" : request.form.get("</t>
+  </si>
+  <si>
+    <t>"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "11",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "12",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "13",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "14",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "15",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "16",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "17",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "18",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "19",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "20",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "21",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "22",</t>
+  </si>
+  <si>
+    <t>"Mr Drudge",</t>
+  </si>
+  <si>
+    <t>"Mr. Alan Ross",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Leo ryan",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Mike ryan",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Mary ryan",</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -680,6 +1039,29 @@
       <color rgb="FFCE9178"/>
       <name val="Monaco"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -698,7 +1080,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="256">
+  <cellStyleXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -955,8 +1337,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -990,8 +1437,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="256">
+  <cellStyles count="321">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1181,6 +1638,71 @@
     <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1582,7 +2104,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0"/>
@@ -1598,7 +2120,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="57" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>36</v>
@@ -1616,15 +2138,15 @@
         <v>47</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
@@ -1633,16 +2155,16 @@
         <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="57" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1656,10 +2178,10 @@
     </row>
     <row r="4" spans="1:14" ht="57" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -1668,15 +2190,15 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="57" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -1685,15 +2207,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="57" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -1702,7 +2224,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -1711,10 +2233,10 @@
     </row>
     <row r="7" spans="1:14" ht="57" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1732,10 +2254,10 @@
     </row>
     <row r="8" spans="1:14" ht="57" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -1753,16 +2275,16 @@
     </row>
     <row r="9" spans="1:14" ht="57" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
@@ -1782,10 +2304,10 @@
     </row>
     <row r="10" spans="1:14" ht="57" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -1800,10 +2322,10 @@
     </row>
     <row r="11" spans="1:14" ht="57" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
@@ -1818,10 +2340,10 @@
     </row>
     <row r="12" spans="1:14" ht="57" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -1838,10 +2360,10 @@
     </row>
     <row r="13" spans="1:14" ht="57" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -1855,10 +2377,10 @@
     </row>
     <row r="14" spans="1:14" ht="57" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>40</v>
@@ -1887,10 +2409,10 @@
     </row>
     <row r="15" spans="1:14" ht="57" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>40</v>
@@ -1925,134 +2447,134 @@
     </row>
     <row r="16" spans="1:14" ht="57" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="57" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="57" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="57" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="57" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="57" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="57" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -2106,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2118,10 +2640,12 @@
     <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="13.1640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30">
+    <row r="1" spans="1:36" ht="30">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -2192,154 +2716,154 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="17">
+    <row r="2" spans="1:36" ht="17">
       <c r="A2" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="31">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="31">
       <c r="A3" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>270</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="46">
+      <c r="A4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="46">
-      <c r="A4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>52</v>
@@ -2405,1283 +2929,1319 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="31">
+    <row r="5" spans="1:36" ht="31">
       <c r="A5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="17">
+      <c r="A6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="17">
+      <c r="A7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="17">
+      <c r="A8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="31">
+      <c r="A9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="31">
+      <c r="A10" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17">
-      <c r="A6" s="11" t="s">
+    <row r="11" spans="1:36" ht="31">
+      <c r="A11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="17">
+      <c r="A12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="71" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="106">
+      <c r="A14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="L14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="R14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="17">
-      <c r="A7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="17">
-      <c r="A8" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="31">
-      <c r="A9" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="31">
-      <c r="A10" s="11" t="s">
+    </row>
+    <row r="15" spans="1:36" ht="121">
+      <c r="A15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="46">
+      <c r="A16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="31">
-      <c r="A11" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="17">
-      <c r="A12" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="71" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="106">
-      <c r="A14" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="121">
-      <c r="A15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="17">
-      <c r="A16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="X16" s="3"/>
+      <c r="Z16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="17" spans="1:23" ht="91">
       <c r="A17" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="61">
       <c r="A18" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="31">
       <c r="A19" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="23" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="76">
       <c r="A21" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3713,8 +4273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:G27"/>
+    <sheetView tabSelected="1" topLeftCell="Q6" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="66.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3852,51 +4412,51 @@
       </c>
       <c r="K2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!L2,"',")</f>
-        <v>quoteId:' "1",',</v>
+        <v>quoteId:' "11",',</v>
       </c>
       <c r="L2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!M2,"',")</f>
-        <v>quoteId:' "1",',</v>
+        <v>quoteId:' "12",',</v>
       </c>
       <c r="M2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!N2,"',")</f>
-        <v>quoteId:' "1",',</v>
+        <v>quoteId:' "13",',</v>
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!O2,"',")</f>
-        <v>quoteId:' "1",',</v>
+        <v>quoteId:' "14",',</v>
       </c>
       <c r="O2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!P2,"',")</f>
-        <v>quoteId:' "1",',</v>
+        <v>quoteId:' "15",',</v>
       </c>
       <c r="P2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!Q2,"',")</f>
-        <v>quoteId:' "1",',</v>
+        <v>quoteId:' "16",',</v>
       </c>
       <c r="Q2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!R2,"',")</f>
-        <v>quoteId:' "1",',</v>
+        <v>quoteId:' "17",',</v>
       </c>
       <c r="R2" t="str">
         <f>CONCATENATE('Document Data'!$A2,'Document Data'!S2)</f>
-        <v>quoteId: "1",</v>
+        <v>quoteId: "18",</v>
       </c>
       <c r="S2" t="str">
         <f>CONCATENATE('Document Data'!$A2,'Document Data'!T2)</f>
-        <v>quoteId: "1",</v>
+        <v>quoteId: "19",</v>
       </c>
       <c r="T2" t="str">
         <f>CONCATENATE('Document Data'!$A2,'Document Data'!U2)</f>
-        <v>quoteId: "1",</v>
+        <v>quoteId: "20",</v>
       </c>
       <c r="U2" t="str">
         <f>CONCATENATE('Document Data'!$A2,'Document Data'!V2)</f>
-        <v>quoteId: "1",</v>
+        <v>quoteId: "21",</v>
       </c>
       <c r="V2" t="str">
         <f>CONCATENATE('Document Data'!$A2,'Document Data'!W2)</f>
-        <v>quoteId: "1",</v>
+        <v>quoteId: "22",</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -3914,7 +4474,7 @@
       </c>
       <c r="D3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!E3)</f>
-        <v>name: "ciaran",</v>
+        <v>name: "Mr Drudge",</v>
       </c>
       <c r="E3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!F3)</f>
@@ -3922,11 +4482,11 @@
       </c>
       <c r="F3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!G3)</f>
-        <v>name: "Mr. Ross",</v>
+        <v>name: "Mr. Alan Ross",</v>
       </c>
       <c r="G3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!H3)</f>
-        <v>name: "ciaran",</v>
+        <v>name: "Mr. Simpson",</v>
       </c>
       <c r="H3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!I3)</f>
@@ -3938,7 +4498,7 @@
       </c>
       <c r="J3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!K3)</f>
-        <v>name: "ciaran",</v>
+        <v>name: "Mr Drudge",</v>
       </c>
       <c r="K3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!L3)</f>
@@ -3946,15 +4506,15 @@
       </c>
       <c r="L3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!M3)</f>
-        <v>name: "Mr. Ross",</v>
+        <v>name: "Mr. Alan Ross",</v>
       </c>
       <c r="M3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!N3)</f>
-        <v>name: "Mr. Ross",</v>
+        <v>name: "Mr. Simpson",</v>
       </c>
       <c r="N3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!O3)</f>
-        <v>name: "Mr. Ross",</v>
+        <v>name: "Mr. Smith",</v>
       </c>
       <c r="O3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!P3)</f>
@@ -3962,23 +4522,23 @@
       </c>
       <c r="P3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!Q3)</f>
-        <v>name: "Mr. Ross",</v>
+        <v>name: "Mr Drudge",</v>
       </c>
       <c r="Q3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!R3)</f>
-        <v>name: "Mr. Ross",</v>
+        <v>name: "Mr. Smith",</v>
       </c>
       <c r="R3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!S3)</f>
-        <v>name: "Mr. Ross",</v>
+        <v>name: "Mr. Alan Ross",</v>
       </c>
       <c r="S3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!T3)</f>
-        <v>name: "Mr. Ross",</v>
+        <v>name: "Mr. Simpson",</v>
       </c>
       <c r="T3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!U3)</f>
-        <v>name: "Mr. Ross",</v>
+        <v>name: "Mr. Smith",</v>
       </c>
       <c r="U3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!V3)</f>
@@ -3986,7 +4546,7 @@
       </c>
       <c r="V3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!W3)</f>
-        <v>name: "Mr. Ross",</v>
+        <v>name: "Mr Drudge",</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -5006,35 +5566,35 @@
       </c>
       <c r="G15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!H15)</f>
-        <v>tech:'Flask',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="H15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!I15)</f>
-        <v>tech:'Django',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="I15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!J15)</f>
-        <v>tech:'NoSQL',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="J15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!K15)</f>
-        <v>tech:'Python',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="K15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!L15)</f>
-        <v>tech:'JavaScript',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="L15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!M15)</f>
-        <v>tech:'HTML5',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="M15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!N15)</f>
-        <v>tech:'HTML5',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="N15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!O15)</f>
-        <v>tech:'HTML5',</v>
+        <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
       </c>
       <c r="O15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!P15)</f>
@@ -5072,91 +5632,91 @@
     <row r="16" spans="1:22">
       <c r="A16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!B16)</f>
-        <v>quoteStatus: "open",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="B16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!C16)</f>
-        <v>quoteStatus: "closed",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
       <c r="C16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!D16)</f>
-        <v>quoteStatus: "pending",</v>
+        <v>quoteStatus: "PENDING",</v>
       </c>
       <c r="D16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!E16)</f>
-        <v>quoteStatus: "open",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="E16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!F16)</f>
-        <v>quoteStatus: "closed",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
       <c r="F16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!G16)</f>
-        <v>quoteStatus: "pending",</v>
+        <v>quoteStatus: "PENDING",</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!H16)</f>
-        <v>quoteStatus: "open",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="H16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!I16)</f>
-        <v>quoteStatus: "closed",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
       <c r="I16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!J16)</f>
-        <v>quoteStatus: "pending",</v>
+        <v>quoteStatus: "PENDING",</v>
       </c>
       <c r="J16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!K16)</f>
-        <v>quoteStatus: "open",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!L16)</f>
-        <v>quoteStatus: "closed",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
       <c r="L16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!M16)</f>
-        <v>quoteStatus: "pending",</v>
+        <v>quoteStatus: "PENDING",</v>
       </c>
       <c r="M16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!N16)</f>
-        <v>quoteStatus: "pending",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="N16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!O16)</f>
-        <v>quoteStatus: "pending",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
       <c r="O16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!P16)</f>
-        <v>quoteStatus: "pending",</v>
+        <v>quoteStatus: "PENDING",</v>
       </c>
       <c r="P16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!Q16)</f>
-        <v>quoteStatus: "closed",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="Q16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!R16)</f>
-        <v>quoteStatus: "pending",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
       <c r="R16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!S16)</f>
-        <v>quoteStatus: "open",</v>
+        <v>quoteStatus: "PENDING",</v>
       </c>
       <c r="S16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!T16)</f>
-        <v>quoteStatus: "closed",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="T16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!U16)</f>
-        <v>quoteStatus: "pending",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
       <c r="U16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!V16)</f>
-        <v>quoteStatus: "open",</v>
+        <v>quoteStatus: "PENDING",</v>
       </c>
       <c r="V16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!W16)</f>
-        <v>quoteStatus: "closed",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -5346,15 +5906,15 @@
       </c>
       <c r="B19" t="str">
         <f>CONCATENATE('Document Data'!$A19,'Document Data'!C19)</f>
-        <v>assignedTo: "Joe ryan",</v>
+        <v>assignedTo: "Leo ryan",</v>
       </c>
       <c r="C19" t="str">
         <f>CONCATENATE('Document Data'!$A19,'Document Data'!D19)</f>
-        <v>assignedTo: "Joe ryan",</v>
+        <v>assignedTo: "Mike ryan",</v>
       </c>
       <c r="D19" t="str">
         <f>CONCATENATE('Document Data'!$A19,'Document Data'!E19)</f>
-        <v>assignedTo: "Joe ryan",</v>
+        <v>assignedTo: "Mary ryan",</v>
       </c>
       <c r="E19" t="str">
         <f>CONCATENATE('Document Data'!$A19,'Document Data'!F19)</f>
@@ -5702,31 +6262,91 @@
     <row r="27" spans="1:22" ht="272" customHeight="1">
       <c r="A27" s="13" t="str">
         <f>CONCATENATE(A1,A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12,A13,A14,A15,A16,A17,A18,A19,A20,A21,A22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "1",',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="B27" s="13" t="str">
         <f>CONCATENATE(B1,B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22)</f>
-        <v>coll.insert({quoteId:' "2",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "2",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Leo ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="C27" s="13" t="str">
-        <f t="shared" ref="C27:G27" si="0">CONCATENATE(C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22)</f>
-        <v>coll.insert({quoteId:' "3",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <f t="shared" ref="C27:V27" si="0">CONCATENATE(C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22)</f>
+        <v>coll.insert({quoteId:' "3",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Mike ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="D27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "4",',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "4",',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Mary ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="E27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "5",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "this is the detailed brief",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "closed",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "5",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "this is the detailed brief",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="F27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "6",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "pending",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "6",',name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="G27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "7",',name: "ciaran",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Flask',quoteStatus: "open",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:' "7",',name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="H27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "8",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="I27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "9",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime:"Low",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "this is the detailed brief",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="J27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "10",',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost:"Low",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="K27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "11",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="L27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "12",',name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="M27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "13",',name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="N27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "14",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="O27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "15",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'HTML5',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="P27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "16",',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'HTML5',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="Q27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId:' "17",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'SQL',quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="R27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId: "18",name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'Flask',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="S27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId: "19",name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Django',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="T27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId: "20",name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'NoSQL',quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="U27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId: "21",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'E-Commerce Web Development',tech:'Python',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+      </c>
+      <c r="V27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coll.insert({quoteId: "22",name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
     </row>
   </sheetData>
@@ -5774,21 +6394,21 @@
         <v>quoteId:</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D2" s="14" t="str">
         <f>A2</f>
         <v>quote</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F2" t="str">
         <f>LEFT(B2,LEN(B2)-1)</f>
         <v>quoteId</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2)</f>
@@ -5805,21 +6425,21 @@
         <v>name:</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D23" si="0">A3</f>
         <v>quote</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F23" si="1">LEFT(B3,LEN(B3)-1)</f>
         <v>name</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H23" si="2">CONCATENATE(C3,D3,E3,F3,G3)</f>
@@ -5836,21 +6456,21 @@
         <v>email:</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>email</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
@@ -5867,21 +6487,21 @@
         <v>phone:</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
         <v>phone</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="2"/>
@@ -5898,21 +6518,21 @@
         <v>rankQuality:</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
         <v>rankQuality</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
@@ -5929,21 +6549,21 @@
         <v>rankTime:</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
         <v>rankTime</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
@@ -5960,21 +6580,21 @@
         <v>rankCost:</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
         <v>rankCost</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
@@ -5991,21 +6611,21 @@
         <v>levelQuality:</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
         <v>levelQuality</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="2"/>
@@ -6022,21 +6642,21 @@
         <v>expectedDate:</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
         <v>expectedDate</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="2"/>
@@ -6053,21 +6673,21 @@
         <v>liveDate:</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
         <v>liveDate</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
@@ -6084,21 +6704,21 @@
         <v>budget:</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
         <v>budget</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="2"/>
@@ -6115,21 +6735,21 @@
         <v>brief:</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>brief</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="2"/>
@@ -6146,21 +6766,21 @@
         <v>typeDev:</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
         <v>typeDev</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="2"/>
@@ -6177,21 +6797,21 @@
         <v>tech:</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
         <v>tech</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="2"/>
@@ -6208,21 +6828,21 @@
         <v>quoteStatus:</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
         <v>quoteStatus</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="2"/>
@@ -6239,21 +6859,21 @@
         <v>quoteDetails:</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
         <v>quoteDetails</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="2"/>
@@ -6270,21 +6890,21 @@
         <v>quoteResponse:</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
         <v>quoteResponse</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="2"/>
@@ -6301,21 +6921,21 @@
         <v>assignedTo:</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
         <v>assignedTo</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="2"/>
@@ -6332,21 +6952,21 @@
         <v>quoteCost:</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
         <v>quoteCost</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
@@ -6363,21 +6983,21 @@
         <v>quoteNeeds:</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
         <v>quoteNeeds</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
@@ -6394,21 +7014,21 @@
         <v>quoteStatus:</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>status</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
         <v>quoteStatus</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="2"/>
@@ -6425,25 +7045,1464 @@
         <v>quoteId:</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quotenumber</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
         <v>quoteId</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="2"/>
         <v>{{quotenumber.quoteId}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+    <col min="16" max="16" width="27.1640625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="15" customFormat="1" ht="16">
+      <c r="G1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="15" t="str">
+        <f>H1</f>
+        <v>quote_phone</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" s="15" t="str">
+        <f>H1</f>
+        <v>quote_phone</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="15" t="str">
+        <f>M1</f>
+        <v>Your Phone Number</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="18" t="str">
+        <f>CONCATENATE(G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1)</f>
+        <v>&lt;input id="quote_phone"name="quote_phone type="text" class="validate" placeholder="Your Phone Number"  value="{{quote.phone}}"&gt;&lt;label for="quote_phone&gt;Your Phone Number&lt;/label&gt;</v>
+      </c>
+      <c r="AA1" s="16"/>
+    </row>
+    <row r="2" spans="1:27" s="15" customFormat="1" ht="16">
+      <c r="H2" s="17"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="W2" s="18"/>
+      <c r="AA2" s="16"/>
+    </row>
+    <row r="3" spans="1:27" s="15" customFormat="1" ht="16">
+      <c r="H3" s="17"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="W3" s="18"/>
+      <c r="AA3" s="16"/>
+    </row>
+    <row r="4" spans="1:27" ht="75">
+      <c r="A4" t="str">
+        <f>CONCATENATE(B4,C4,D4,E4,F4)</f>
+        <v>"quoteId" : request.form.get("quote_id"),</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" t="str">
+        <f>H4</f>
+        <v>quote_id</v>
+      </c>
+      <c r="F4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="15" t="str">
+        <f t="shared" ref="J4:J23" si="0">H4</f>
+        <v>quote_id</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="S4" s="15" t="str">
+        <f t="shared" ref="S4" si="1">H4</f>
+        <v>quote_id</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="U4" s="15" t="str">
+        <f t="shared" ref="U4" si="2">M4</f>
+        <v>Quote Id</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="W4" s="18" t="str">
+        <f t="shared" ref="W4:W24" si="3">CONCATENATE(G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4)</f>
+        <v>&lt;div class="form-group"&gt;&lt;span&gt;&lt;i class="fa fa-envelope-o bigicon"&gt;_x000D_                Please enter your email so we can reply to you&lt;/i&gt;&lt;/span&gt; &lt;input id= "quote_id" name= "quote_id" type="text" class="validate" placeholder= "Quote Id"  value= "{{quote.quoteId}}"&gt;&lt;/div&gt;&lt;label for="quote_id&gt;Quote Id&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16">
+      <c r="A5" t="str">
+        <f>CONCATENATE(B5,C5,D5,E5,F5)</f>
+        <v>"name" : request.form.get("quote_name"),</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E23" si="4">H5</f>
+        <v>quote_name</v>
+      </c>
+      <c r="F5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_name</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_name" name= "quote_name" type="text" class="form-control" placeholder= "Your Full Name"  value= "{{quote.name}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16">
+      <c r="A6" t="str">
+        <f t="shared" ref="A6:A23" si="5">CONCATENATE(B6,C6,D6,E6,F6)</f>
+        <v>"email" : request.form.get("quote_email"),</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_email</v>
+      </c>
+      <c r="F6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_email</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_email" name= "quote_email" type="text" class="form-control" placeholder= "Your email address"  value= "{{quote.email}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16">
+      <c r="A7" t="str">
+        <f t="shared" si="5"/>
+        <v>"phone" : request.form.get("quote_phone"),</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_phone</v>
+      </c>
+      <c r="F7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_phone</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_phone" name= "quote_phone" type="text" class="form-control" placeholder= "Your Phone Number"  value= "{{quote.phone}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16">
+      <c r="A8" t="str">
+        <f t="shared" si="5"/>
+        <v>"rankQuality" : request.form.get("quote_rankquality"),</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_rankquality</v>
+      </c>
+      <c r="F8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_rankquality</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_rankquality" name= "quote_rankquality" type="text" class="form-control" placeholder= "Rank your expected time level"  value= "{{quote.rankQuality}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16">
+      <c r="A9" t="str">
+        <f t="shared" si="5"/>
+        <v>"rankTime" : request.form.get("quote_ranktime"),</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_ranktime</v>
+      </c>
+      <c r="F9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_ranktime</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_ranktime" name= "quote_ranktime" type="text" class="form-control" placeholder= "Rank your expected Quality level"  value= "{{quote.rankTime}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16">
+      <c r="A10" t="str">
+        <f t="shared" si="5"/>
+        <v>"rankCost" : request.form.get("quote_rankcost"),</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_rankcost</v>
+      </c>
+      <c r="F10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_rankcost</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_rankcost" name= "quote_rankcost" type="text" class="form-control" placeholder= "Rank your expected Cost level"  value= "{{quote.rankCost}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16">
+      <c r="A11" t="str">
+        <f t="shared" si="5"/>
+        <v>"levelQuality" : request.form.get("quote_expectedquality"),</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_expectedquality</v>
+      </c>
+      <c r="F11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_expectedquality</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_expectedquality" name= "quote_expectedquality" type="text" class="form-control" placeholder= "YourLevel of Quality"  value= "{{quote.levelQuality}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16">
+      <c r="A12" t="str">
+        <f t="shared" si="5"/>
+        <v>"expectedDate" : request.form.get("quote_expecteddate"),</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_expecteddate</v>
+      </c>
+      <c r="F12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_expecteddate</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_expecteddate" name= "quote_expecteddate" type="text" class="form-control" placeholder= "Your Expected Libe Date"  value= "{{quote.expectedDate}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="16">
+      <c r="A13" t="str">
+        <f t="shared" si="5"/>
+        <v>"liveDate" : request.form.get("quote_livedate"),</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_livedate</v>
+      </c>
+      <c r="F13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_livedate</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_livedate" name= "quote_livedate" type="text" class="form-control" placeholder= "Your Expected Delivery Date"  value= "{{quote.liveDate}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="16">
+      <c r="A14" t="str">
+        <f t="shared" si="5"/>
+        <v>"budget" : request.form.get("quote_budget "),</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">quote_budget </v>
+      </c>
+      <c r="F14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">quote_budget </v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_budget " name= "quote_budget " type="text" class="form-control" placeholder= "Your Budget"  value= "{{quote.budget}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16">
+      <c r="A15" t="str">
+        <f t="shared" si="5"/>
+        <v>"brief" : request.form.get("quote_brief"),</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_brief</v>
+      </c>
+      <c r="F15" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_brief</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_brief" name= "quote_brief" type="text" class="form-control" placeholder= "Please Detail you project brief "  value= "{{quote.brief}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16">
+      <c r="A16" t="str">
+        <f t="shared" si="5"/>
+        <v>"typeDev" : request.form.get("quote_typedev"),</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_typedev</v>
+      </c>
+      <c r="F16" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_typedev</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_typedev" name= "quote_typedev" type="text" class="form-control" placeholder= "The Type of Development required"  value= "{{quote.typeDev}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16">
+      <c r="A17" t="str">
+        <f t="shared" si="5"/>
+        <v>"tech" : request.form.get("quote_tech"),</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_tech</v>
+      </c>
+      <c r="F17" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_tech</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_tech" name= "quote_tech" type="text" class="form-control" placeholder= "Technololy"  value= "{{quote.tech[i]}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="16">
+      <c r="A18" t="str">
+        <f t="shared" si="5"/>
+        <v>"quoteStatus" : request.form.get("quote_quotestatus"),</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_quotestatus</v>
+      </c>
+      <c r="F18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_quotestatus</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_quotestatus" name= "quote_quotestatus" type="text" class="form-control" placeholder= "The Status of the Quote"  value= "{{quote.quoteStatus}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16">
+      <c r="A19" t="str">
+        <f t="shared" si="5"/>
+        <v>"quoteDetails" : request.form.get("quote_details"),</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_details</v>
+      </c>
+      <c r="F19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_details</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_details" name= "quote_details" type="text" class="form-control" placeholder= "Our Detailed Response to the Customers Brief"  value= "{{quote.quoteDetails}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16">
+      <c r="A20" t="str">
+        <f t="shared" si="5"/>
+        <v>"quoteResponse" : request.form.get("quote_response"),</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_response</v>
+      </c>
+      <c r="F20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_response</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_response" name= "quote_response" type="text" class="form-control" placeholder= "Our Detailed Response to the Customers "  value= "{{quote.quoteResponse}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="16">
+      <c r="A21" t="str">
+        <f t="shared" si="5"/>
+        <v>"assignedTo" : request.form.get("quote_person"),</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_person</v>
+      </c>
+      <c r="F21" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_person</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_person" name= "quote_person" type="text" class="form-control" placeholder= "Our Person assigned to this project"  value= "{{quote.assignedTo}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="16">
+      <c r="A22" t="str">
+        <f t="shared" si="5"/>
+        <v>"quoteCost" : request.form.get("quote_cost"),</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_cost</v>
+      </c>
+      <c r="F22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_cost</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_cost" name= "quote_cost" type="text" class="form-control" placeholder= "Our Detailed costings to the Customers Brief"  value= "{{quote.quoteCost}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16">
+      <c r="A23" t="str">
+        <f t="shared" si="5"/>
+        <v>"quoteNeeds" : request.form.get("quote_needs"),</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="4"/>
+        <v>quote_needs</v>
+      </c>
+      <c r="F23" t="s">
+        <v>256</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>quote_needs</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;div class="form-group"&gt; &lt;input id= "quote_needs" name= "quote_needs" type="text" class="form-control" placeholder= "Our List of  resources needed"  value= "{{quote.quoteNeeds}}"&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/drafts/CRM-schema.xlsx
+++ b/drafts/CRM-schema.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="31580" yWindow="1540" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Field Names" sheetId="1" r:id="rId1"/>
-    <sheet name="Schema Layout" sheetId="2" r:id="rId2"/>
-    <sheet name="Document Data" sheetId="3" r:id="rId3"/>
-    <sheet name="JSON" sheetId="4" r:id="rId4"/>
-    <sheet name="variables" sheetId="8" r:id="rId5"/>
-    <sheet name="Form" sheetId="9" r:id="rId6"/>
+    <sheet name="Document Data" sheetId="3" r:id="rId2"/>
+    <sheet name="JSON" sheetId="4" r:id="rId3"/>
+    <sheet name="variables" sheetId="8" r:id="rId4"/>
+    <sheet name="Form" sheetId="9" r:id="rId5"/>
+    <sheet name="Schema Layout" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Field Names'!$A$1:$I$23</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="252">
   <si>
     <t>Your name, please? *</t>
   </si>
@@ -472,36 +472,6 @@
     <t xml:space="preserve"> "sending the standard response",</t>
   </si>
   <si>
-    <t xml:space="preserve"> "1",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "3",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "4",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "5",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "6",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "7",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "8",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "9",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "10",</t>
-  </si>
-  <si>
     <t>{{</t>
   </si>
   <si>
@@ -889,42 +859,6 @@
   </si>
   <si>
     <t>"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "11",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "12",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "13",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "14",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "15",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "16",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "17",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "18",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "19",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "20",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "21",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "22",</t>
   </si>
   <si>
     <t>"Mr Drudge",</t>
@@ -2104,7 +2038,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0"/>
@@ -2164,7 +2098,7 @@
         <v>115</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -2215,7 +2149,7 @@
         <v>115</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -2343,7 +2277,7 @@
         <v>115</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -2363,7 +2297,7 @@
         <v>115</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -2450,7 +2384,7 @@
         <v>115</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
@@ -2548,7 +2482,7 @@
         <v>116</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
@@ -2593,45 +2527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2720,71 +2619,71 @@
       <c r="A2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>268</v>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2">
+        <v>17</v>
+      </c>
+      <c r="S2" s="2">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2">
+        <v>20</v>
+      </c>
+      <c r="V2" s="2">
+        <v>21</v>
+      </c>
+      <c r="W2" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="31">
@@ -2801,13 +2700,13 @@
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>97</v>
@@ -2819,13 +2718,13 @@
         <v>54</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>97</v>
@@ -2837,13 +2736,13 @@
         <v>54</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>97</v>
@@ -2855,7 +2754,7 @@
         <v>54</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="46">
@@ -3644,46 +3543,46 @@
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>79</v>
@@ -3715,107 +3614,107 @@
         <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="91">
@@ -3968,13 +3867,13 @@
         <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>123</v>
@@ -4269,12 +4168,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q6" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="T65" sqref="T65"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="66.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4372,91 +4271,91 @@
     <row r="2" spans="1:22">
       <c r="A2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!B2,"',")</f>
-        <v>quoteId:' "1",',</v>
+        <v>quoteId:'1',</v>
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!C2,"',")</f>
-        <v>quoteId:' "2",',</v>
+        <v>quoteId:'2',</v>
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!D2,"',")</f>
-        <v>quoteId:' "3",',</v>
+        <v>quoteId:'3',</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!E2,"',")</f>
-        <v>quoteId:' "4",',</v>
+        <v>quoteId:'4',</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!F2,"',")</f>
-        <v>quoteId:' "5",',</v>
+        <v>quoteId:'5',</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!G2,"',")</f>
-        <v>quoteId:' "6",',</v>
+        <v>quoteId:'6',</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!H2,"',")</f>
-        <v>quoteId:' "7",',</v>
+        <v>quoteId:'7',</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!I2,"',")</f>
-        <v>quoteId:' "8",',</v>
+        <v>quoteId:'8',</v>
       </c>
       <c r="I2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!J2,"',")</f>
-        <v>quoteId:' "9",',</v>
+        <v>quoteId:'9',</v>
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!K2,"',")</f>
-        <v>quoteId:' "10",',</v>
+        <v>quoteId:'10',</v>
       </c>
       <c r="K2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!L2,"',")</f>
-        <v>quoteId:' "11",',</v>
+        <v>quoteId:'11',</v>
       </c>
       <c r="L2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!M2,"',")</f>
-        <v>quoteId:' "12",',</v>
+        <v>quoteId:'12',</v>
       </c>
       <c r="M2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!N2,"',")</f>
-        <v>quoteId:' "13",',</v>
+        <v>quoteId:'13',</v>
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!O2,"',")</f>
-        <v>quoteId:' "14",',</v>
+        <v>quoteId:'14',</v>
       </c>
       <c r="O2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!P2,"',")</f>
-        <v>quoteId:' "15",',</v>
+        <v>quoteId:'15',</v>
       </c>
       <c r="P2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!Q2,"',")</f>
-        <v>quoteId:' "16",',</v>
+        <v>quoteId:'16',</v>
       </c>
       <c r="Q2" t="str">
         <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!R2,"',")</f>
-        <v>quoteId:' "17",',</v>
+        <v>quoteId:'17',</v>
       </c>
       <c r="R2" t="str">
         <f>CONCATENATE('Document Data'!$A2,'Document Data'!S2)</f>
-        <v>quoteId: "18",</v>
+        <v>quoteId:18</v>
       </c>
       <c r="S2" t="str">
         <f>CONCATENATE('Document Data'!$A2,'Document Data'!T2)</f>
-        <v>quoteId: "19",</v>
+        <v>quoteId:19</v>
       </c>
       <c r="T2" t="str">
         <f>CONCATENATE('Document Data'!$A2,'Document Data'!U2)</f>
-        <v>quoteId: "20",</v>
+        <v>quoteId:20</v>
       </c>
       <c r="U2" t="str">
         <f>CONCATENATE('Document Data'!$A2,'Document Data'!V2)</f>
-        <v>quoteId: "21",</v>
+        <v>quoteId:21</v>
       </c>
       <c r="V2" t="str">
         <f>CONCATENATE('Document Data'!$A2,'Document Data'!W2)</f>
-        <v>quoteId: "22",</v>
+        <v>quoteId:22</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -6262,91 +6161,91 @@
     <row r="27" spans="1:22" ht="272" customHeight="1">
       <c r="A27" s="13" t="str">
         <f>CONCATENATE(A1,A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12,A13,A14,A15,A16,A17,A18,A19,A20,A21,A22)</f>
-        <v>coll.insert({quoteId:' "1",',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'1',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="B27" s="13" t="str">
         <f>CONCATENATE(B1,B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22)</f>
-        <v>coll.insert({quoteId:' "2",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Leo ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'2',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Leo ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="C27" s="13" t="str">
         <f t="shared" ref="C27:V27" si="0">CONCATENATE(C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22)</f>
-        <v>coll.insert({quoteId:' "3",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Mike ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'3',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Mike ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="D27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "4",',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Mary ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'4',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Mary ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="E27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "5",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "this is the detailed brief",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'5',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "this is the detailed brief",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="F27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "6",',name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'6',name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="G27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "7",',name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'7',name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="H27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "8",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'8',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="I27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "9",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime:"Low",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "this is the detailed brief",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'9',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime:"Low",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "this is the detailed brief",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="J27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "10",',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost:"Low",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'10',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost:"Low",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="K27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "11",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'11',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="L27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "12",',name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'12',name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="M27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "13",',name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'13',name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="N27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "14",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'14',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="O27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "15",',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'HTML5',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'15',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'HTML5',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="P27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "16",',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'HTML5',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'16',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'HTML5',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="Q27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:' "17",',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'SQL',quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:'17',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'SQL',quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="R27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId: "18",name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'Flask',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:18name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'Flask',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="S27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId: "19",name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Django',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:19name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Django',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="T27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId: "20",name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'NoSQL',quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:20name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'NoSQL',quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="U27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId: "21",name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'E-Commerce Web Development',tech:'Python',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:21name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'E-Commerce Web Development',tech:'Python',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="V27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId: "22",name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:22name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
     </row>
   </sheetData>
@@ -6360,7 +6259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -6394,21 +6293,21 @@
         <v>quoteId:</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D2" s="14" t="str">
         <f>A2</f>
         <v>quote</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F2" t="str">
         <f>LEFT(B2,LEN(B2)-1)</f>
         <v>quoteId</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2)</f>
@@ -6425,21 +6324,21 @@
         <v>name:</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D23" si="0">A3</f>
         <v>quote</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F23" si="1">LEFT(B3,LEN(B3)-1)</f>
         <v>name</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H23" si="2">CONCATENATE(C3,D3,E3,F3,G3)</f>
@@ -6456,21 +6355,21 @@
         <v>email:</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>email</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
@@ -6487,21 +6386,21 @@
         <v>phone:</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
         <v>phone</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="2"/>
@@ -6518,21 +6417,21 @@
         <v>rankQuality:</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
         <v>rankQuality</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
@@ -6549,21 +6448,21 @@
         <v>rankTime:</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
         <v>rankTime</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
@@ -6580,21 +6479,21 @@
         <v>rankCost:</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
         <v>rankCost</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
@@ -6611,21 +6510,21 @@
         <v>levelQuality:</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
         <v>levelQuality</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="2"/>
@@ -6642,21 +6541,21 @@
         <v>expectedDate:</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
         <v>expectedDate</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="2"/>
@@ -6673,21 +6572,21 @@
         <v>liveDate:</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
         <v>liveDate</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
@@ -6704,21 +6603,21 @@
         <v>budget:</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
         <v>budget</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="2"/>
@@ -6735,21 +6634,21 @@
         <v>brief:</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>brief</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="2"/>
@@ -6766,21 +6665,21 @@
         <v>typeDev:</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
         <v>typeDev</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="2"/>
@@ -6797,21 +6696,21 @@
         <v>tech:</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
         <v>tech</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="2"/>
@@ -6828,21 +6727,21 @@
         <v>quoteStatus:</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
         <v>quoteStatus</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="2"/>
@@ -6859,21 +6758,21 @@
         <v>quoteDetails:</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
         <v>quoteDetails</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="2"/>
@@ -6890,21 +6789,21 @@
         <v>quoteResponse:</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
         <v>quoteResponse</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="2"/>
@@ -6921,21 +6820,21 @@
         <v>assignedTo:</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
         <v>assignedTo</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="2"/>
@@ -6952,21 +6851,21 @@
         <v>quoteCost:</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
         <v>quoteCost</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
@@ -6983,21 +6882,21 @@
         <v>quoteNeeds:</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
         <v>quoteNeeds</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
@@ -7014,21 +6913,21 @@
         <v>quoteStatus:</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>status</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
         <v>quoteStatus</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="2"/>
@@ -7045,21 +6944,21 @@
         <v>quoteId:</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quotenumber</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
         <v>quoteId</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="2"/>
@@ -7077,7 +6976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
@@ -7109,55 +7008,55 @@
   <sheetData>
     <row r="1" spans="1:27" s="15" customFormat="1" ht="16">
       <c r="G1" s="15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J1" s="15" t="str">
         <f>H1</f>
         <v>quote_phone</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>168</v>
-      </c>
       <c r="Q1" s="15" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="S1" s="15" t="str">
         <f>H1</f>
         <v>quote_phone</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="U1" s="15" t="str">
         <f>M1</f>
         <v>Your Phone Number</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="W1" s="18" t="str">
         <f>CONCATENATE(G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1)</f>
@@ -7187,71 +7086,71 @@
         <v>"quoteId" : request.form.get("quote_id"),</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E4" t="str">
         <f>H4</f>
         <v>quote_id</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" ref="J4:J23" si="0">H4</f>
         <v>quote_id</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="S4" s="15" t="str">
         <f t="shared" ref="S4" si="1">H4</f>
         <v>quote_id</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="U4" s="15" t="str">
         <f t="shared" ref="U4" si="2">M4</f>
         <v>Quote Id</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="W4" s="18" t="str">
         <f t="shared" ref="W4:W24" si="3">CONCATENATE(G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4)</f>
@@ -7264,54 +7163,54 @@
         <v>"name" : request.form.get("quote_name"),</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E23" si="4">H5</f>
         <v>quote_name</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_name</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -7329,54 +7228,54 @@
         <v>"email" : request.form.get("quote_email"),</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="4"/>
         <v>quote_email</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_email</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
@@ -7394,54 +7293,54 @@
         <v>"phone" : request.form.get("quote_phone"),</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="4"/>
         <v>quote_phone</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_phone</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -7459,54 +7358,54 @@
         <v>"rankQuality" : request.form.get("quote_rankquality"),</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="4"/>
         <v>quote_rankquality</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_rankquality</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -7524,54 +7423,54 @@
         <v>"rankTime" : request.form.get("quote_ranktime"),</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="4"/>
         <v>quote_ranktime</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_ranktime</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -7589,54 +7488,54 @@
         <v>"rankCost" : request.form.get("quote_rankcost"),</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="4"/>
         <v>quote_rankcost</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_rankcost</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
@@ -7654,54 +7553,54 @@
         <v>"levelQuality" : request.form.get("quote_expectedquality"),</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="4"/>
         <v>quote_expectedquality</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_expectedquality</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
@@ -7719,54 +7618,54 @@
         <v>"expectedDate" : request.form.get("quote_expecteddate"),</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>244</v>
-      </c>
       <c r="D12" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="4"/>
         <v>quote_expecteddate</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_expecteddate</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
@@ -7784,54 +7683,54 @@
         <v>"liveDate" : request.form.get("quote_livedate"),</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>245</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="4"/>
         <v>quote_livedate</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_livedate</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="N13" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="O13" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>174</v>
-      </c>
       <c r="Q13" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
@@ -7849,54 +7748,54 @@
         <v>"budget" : request.form.get("quote_budget "),</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">quote_budget </v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J14" s="15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">quote_budget </v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
@@ -7914,54 +7813,54 @@
         <v>"brief" : request.form.get("quote_brief"),</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="4"/>
         <v>quote_brief</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_brief</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
@@ -7979,54 +7878,54 @@
         <v>"typeDev" : request.form.get("quote_typedev"),</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="4"/>
         <v>quote_typedev</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_typedev</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
@@ -8044,54 +7943,54 @@
         <v>"tech" : request.form.get("quote_tech"),</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="4"/>
         <v>quote_tech</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_tech</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M17" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q17" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
@@ -8109,54 +8008,54 @@
         <v>"quoteStatus" : request.form.get("quote_quotestatus"),</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="4"/>
         <v>quote_quotestatus</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_quotestatus</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
@@ -8174,54 +8073,54 @@
         <v>"quoteDetails" : request.form.get("quote_details"),</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="4"/>
         <v>quote_details</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_details</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
@@ -8239,54 +8138,54 @@
         <v>"quoteResponse" : request.form.get("quote_response"),</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="4"/>
         <v>quote_response</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_response</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
@@ -8304,54 +8203,54 @@
         <v>"assignedTo" : request.form.get("quote_person"),</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="4"/>
         <v>quote_person</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_person</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M21" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="N21" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>229</v>
-      </c>
       <c r="P21" s="19" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
@@ -8369,54 +8268,54 @@
         <v>"quoteCost" : request.form.get("quote_cost"),</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="4"/>
         <v>quote_cost</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_cost</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
@@ -8434,54 +8333,54 @@
         <v>"quoteNeeds" : request.form.get("quote_needs"),</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="4"/>
         <v>quote_needs</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_needs</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
@@ -8514,4 +8413,39 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/drafts/CRM-schema.xlsx
+++ b/drafts/CRM-schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31580" yWindow="1540" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Field Names" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="254">
   <si>
     <t>Your name, please? *</t>
   </si>
@@ -231,15 +231,6 @@
   </si>
   <si>
     <t>quoteId:</t>
-  </si>
-  <si>
-    <t>"Low",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Medium",</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "High",</t>
   </si>
   <si>
     <t>'Responsive Web Development (HTML5/JSON/REST)',</t>
@@ -551,12 +542,6 @@
     <t>"PENDING",</t>
   </si>
   <si>
-    <t>"WAITING FOR INFO",</t>
-  </si>
-  <si>
-    <t>"DELAYED",</t>
-  </si>
-  <si>
     <t>&lt;input id="</t>
   </si>
   <si>
@@ -874,13 +859,45 @@
   </si>
   <si>
     <t xml:space="preserve"> "Mary ryan",</t>
+  </si>
+  <si>
+    <t>"LOW",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MEDIUM",</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "HIGH",</t>
+  </si>
+  <si>
+    <t>"100,000",</t>
+  </si>
+  <si>
+    <t>"60000",</t>
+  </si>
+  <si>
+    <t>"70000",</t>
+  </si>
+  <si>
+    <t>"NEW",</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1014,375 +1031,441 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="321">
+  <cellStyleXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="131" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="131" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="321">
+  <cellStyles count="380">
+    <cellStyle name="Comma" xfId="321" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1637,6 +1720,64 @@
     <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2054,7 +2195,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="57" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>36</v>
@@ -2072,12 +2213,12 @@
         <v>47</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>67</v>
@@ -2089,16 +2230,16 @@
         <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="57" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -2112,10 +2253,10 @@
     </row>
     <row r="4" spans="1:14" ht="57" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -2124,15 +2265,15 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="57" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -2141,15 +2282,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="57" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -2158,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -2167,10 +2308,10 @@
     </row>
     <row r="7" spans="1:14" ht="57" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -2188,10 +2329,10 @@
     </row>
     <row r="8" spans="1:14" ht="57" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -2209,16 +2350,16 @@
     </row>
     <row r="9" spans="1:14" ht="57" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
@@ -2238,10 +2379,10 @@
     </row>
     <row r="10" spans="1:14" ht="57" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -2256,10 +2397,10 @@
     </row>
     <row r="11" spans="1:14" ht="57" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
@@ -2274,10 +2415,10 @@
     </row>
     <row r="12" spans="1:14" ht="57" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -2294,10 +2435,10 @@
     </row>
     <row r="13" spans="1:14" ht="57" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -2311,10 +2452,10 @@
     </row>
     <row r="14" spans="1:14" ht="57" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>40</v>
@@ -2343,10 +2484,10 @@
     </row>
     <row r="15" spans="1:14" ht="57" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>40</v>
@@ -2381,125 +2522,125 @@
     </row>
     <row r="16" spans="1:14" ht="57" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="57" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="57" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="57" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="57" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="57" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="57" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>67</v>
@@ -2508,12 +2649,12 @@
         <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H23" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2527,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="O5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2615,83 +2756,83 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="17">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:36" s="24" customFormat="1" ht="17">
+      <c r="A2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="24">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="24">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="24">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="24">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="24">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="24">
         <v>6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="24">
         <v>7</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="24">
         <v>8</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="24">
         <v>9</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="24">
         <v>10</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="24">
         <v>11</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="24">
         <v>12</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="24">
         <v>13</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="24">
         <v>14</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="24">
         <v>15</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="24">
         <v>16</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="24">
         <v>17</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="24">
         <v>18</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="24">
         <v>19</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="24">
         <v>20</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="24">
         <v>21</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="24">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="31">
       <c r="A3" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>53</v>
@@ -2700,16 +2841,16 @@
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>53</v>
@@ -2718,16 +2859,16 @@
         <v>54</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>53</v>
@@ -2736,16 +2877,16 @@
         <v>54</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>53</v>
@@ -2754,12 +2895,12 @@
         <v>54</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="46">
       <c r="A4" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>55</v>
@@ -2830,7 +2971,7 @@
     </row>
     <row r="5" spans="1:36" ht="31">
       <c r="A5" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>56</v>
@@ -2901,291 +3042,291 @@
     </row>
     <row r="6" spans="1:36" ht="17">
       <c r="A6" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="17">
       <c r="A7" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="17">
       <c r="A8" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="31">
       <c r="A9" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="Q9" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="U9" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="31">
       <c r="A10" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>57</v>
@@ -3256,7 +3397,7 @@
     </row>
     <row r="11" spans="1:36" ht="31">
       <c r="A11" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>57</v>
@@ -3327,7 +3468,7 @@
     </row>
     <row r="12" spans="1:36" ht="17">
       <c r="A12" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>58</v>
@@ -3398,7 +3539,7 @@
     </row>
     <row r="13" spans="1:36" ht="71" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>63</v>
@@ -3469,257 +3610,259 @@
     </row>
     <row r="14" spans="1:36" ht="106">
       <c r="A14" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="H14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="121">
       <c r="A15" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="31">
+      <c r="A16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="M16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="Q16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="U16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="Y16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="AC16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="46">
-      <c r="A16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH16" s="3" t="s">
-        <v>143</v>
+      <c r="AG16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="91">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" ht="91">
       <c r="A17" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>60</v>
@@ -3788,291 +3931,390 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="61">
+    <row r="18" spans="1:56" ht="61">
       <c r="A18" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="31">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" ht="31">
       <c r="A19" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" ht="23" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD20" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" ht="76">
+      <c r="A21" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="23" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="76">
-      <c r="A21" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -4170,15 +4412,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27:V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="66.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:46">
       <c r="A1" t="str">
         <f>'Document Data'!$A$1</f>
         <v>coll.insert({</v>
@@ -4268,97 +4510,193 @@
         <v>coll.insert({</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:46">
       <c r="A2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!B2,"',")</f>
-        <v>quoteId:'1',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!B2,",")</f>
+        <v>quoteId:1,</v>
       </c>
       <c r="B2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!C2,"',")</f>
-        <v>quoteId:'2',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!C2,",")</f>
+        <v>quoteId:2,</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!D2,"',")</f>
-        <v>quoteId:'3',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!D2,",")</f>
+        <v>quoteId:3,</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!E2,"',")</f>
-        <v>quoteId:'4',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!E2,",")</f>
+        <v>quoteId:4,</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!F2,"',")</f>
-        <v>quoteId:'5',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!F2,",")</f>
+        <v>quoteId:5,</v>
       </c>
       <c r="F2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!G2,"',")</f>
-        <v>quoteId:'6',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!G2,",")</f>
+        <v>quoteId:6,</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!H2,"',")</f>
-        <v>quoteId:'7',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!H2,",")</f>
+        <v>quoteId:7,</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!I2,"',")</f>
-        <v>quoteId:'8',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!I2,",")</f>
+        <v>quoteId:8,</v>
       </c>
       <c r="I2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!J2,"',")</f>
-        <v>quoteId:'9',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!J2,",")</f>
+        <v>quoteId:9,</v>
       </c>
       <c r="J2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!K2,"',")</f>
-        <v>quoteId:'10',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!K2,",")</f>
+        <v>quoteId:10,</v>
       </c>
       <c r="K2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!L2,"',")</f>
-        <v>quoteId:'11',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!L2,",")</f>
+        <v>quoteId:11,</v>
       </c>
       <c r="L2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!M2,"',")</f>
-        <v>quoteId:'12',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!M2,",")</f>
+        <v>quoteId:12,</v>
       </c>
       <c r="M2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!N2,"',")</f>
-        <v>quoteId:'13',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!N2,",")</f>
+        <v>quoteId:13,</v>
       </c>
       <c r="N2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!O2,"',")</f>
-        <v>quoteId:'14',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!O2,",")</f>
+        <v>quoteId:14,</v>
       </c>
       <c r="O2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!P2,"',")</f>
-        <v>quoteId:'15',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!P2,",")</f>
+        <v>quoteId:15,</v>
       </c>
       <c r="P2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!Q2,"',")</f>
-        <v>quoteId:'16',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!Q2,",")</f>
+        <v>quoteId:16,</v>
       </c>
       <c r="Q2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,"'",'Document Data'!R2,"',")</f>
-        <v>quoteId:'17',</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!R2,",")</f>
+        <v>quoteId:17,</v>
       </c>
       <c r="R2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,'Document Data'!S2)</f>
-        <v>quoteId:18</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!S2,",")</f>
+        <v>quoteId:18,</v>
       </c>
       <c r="S2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,'Document Data'!T2)</f>
-        <v>quoteId:19</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!T2,",")</f>
+        <v>quoteId:19,</v>
       </c>
       <c r="T2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,'Document Data'!U2)</f>
-        <v>quoteId:20</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!U2,",")</f>
+        <v>quoteId:20,</v>
       </c>
       <c r="U2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,'Document Data'!V2)</f>
-        <v>quoteId:21</v>
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!V2,",")</f>
+        <v>quoteId:21,</v>
       </c>
       <c r="V2" t="str">
-        <f>CONCATENATE('Document Data'!$A2,'Document Data'!W2)</f>
-        <v>quoteId:22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!W2,",")</f>
+        <v>quoteId:22,</v>
+      </c>
+      <c r="W2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!X2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="X2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!Y2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!Z2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AA2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AB2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AC2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AD2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AE2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AF2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AG2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AG2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AH2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AH2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AI2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AI2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AJ2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AK2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AK2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AL2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AL2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AM2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AM2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AN2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AN2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AO2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AO2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AP2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AP2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AQ2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AR2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AR2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AS2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AS2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AT2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+      <c r="AT2" t="str">
+        <f>CONCATENATE('Document Data'!$A2,'Document Data'!AU2,",")</f>
+        <v>quoteId:,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
       <c r="A3" t="str">
         <f>CONCATENATE('Document Data'!$A3,'Document Data'!B3)</f>
         <v>name: "Mr. Simpson",</v>
@@ -4448,7 +4786,7 @@
         <v>name: "Mr Drudge",</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:46">
       <c r="A4" t="str">
         <f>CONCATENATE('Document Data'!$A4,'Document Data'!B4)</f>
         <v>email: "ciaran.quinlan@gmail.com",</v>
@@ -4538,7 +4876,7 @@
         <v>email:"random@email.com",</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:46">
       <c r="A5" t="str">
         <f>CONCATENATE('Document Data'!$A5,'Document Data'!B5)</f>
         <v>phone: "0868090777",</v>
@@ -4628,277 +4966,277 @@
         <v>phone: "0868090777",</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:46">
       <c r="A6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!B6)</f>
-        <v>rankQuality: "Low",</v>
+        <v>rankQuality: "LOW",</v>
       </c>
       <c r="B6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!C6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="C6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!D6)</f>
-        <v>rankQuality:  "High",</v>
+        <v>rankQuality:  "HIGH",</v>
       </c>
       <c r="D6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!E6)</f>
-        <v>rankQuality:  "High",</v>
+        <v>rankQuality:  "HIGH",</v>
       </c>
       <c r="E6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!F6)</f>
-        <v>rankQuality: "Low",</v>
+        <v>rankQuality: "LOW",</v>
       </c>
       <c r="F6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!G6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="G6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!H6)</f>
-        <v>rankQuality:  "High",</v>
+        <v>rankQuality:  "HIGH",</v>
       </c>
       <c r="H6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!I6)</f>
-        <v>rankQuality:  "High",</v>
+        <v>rankQuality:  "HIGH",</v>
       </c>
       <c r="I6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!J6)</f>
-        <v>rankQuality: "Low",</v>
+        <v>rankQuality: "LOW",</v>
       </c>
       <c r="J6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!K6)</f>
-        <v>rankQuality: "Low",</v>
+        <v>rankQuality: "LOW",</v>
       </c>
       <c r="K6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!L6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="L6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!M6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="M6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!N6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="N6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!O6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="O6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!P6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="P6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!Q6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="Q6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!R6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="R6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!S6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="S6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!T6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="T6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!U6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="U6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!V6)</f>
-        <v>rankQuality:  "Medium",</v>
+        <v>rankQuality:  "MEDIUM",</v>
       </c>
       <c r="V6" t="str">
         <f>CONCATENATE('Document Data'!$A6,'Document Data'!W6)</f>
-        <v>rankQuality:  "Medium",</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>rankQuality:  "MEDIUM",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
       <c r="A7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!B7)</f>
-        <v>rankTime: "Medium",</v>
+        <v>rankTime: "MEDIUM",</v>
       </c>
       <c r="B7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!C7)</f>
-        <v>rankTime:"Low",</v>
+        <v>rankTime:"LOW",</v>
       </c>
       <c r="C7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!D7)</f>
-        <v>rankTime: "Medium",</v>
+        <v>rankTime: "MEDIUM",</v>
       </c>
       <c r="D7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!E7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="E7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!F7)</f>
-        <v>rankTime: "Medium",</v>
+        <v>rankTime: "MEDIUM",</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!G7)</f>
-        <v>rankTime:"Low",</v>
+        <v>rankTime:"LOW",</v>
       </c>
       <c r="G7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!H7)</f>
-        <v>rankTime: "Medium",</v>
+        <v>rankTime: "MEDIUM",</v>
       </c>
       <c r="H7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!I7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="I7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!J7)</f>
-        <v>rankTime:"Low",</v>
+        <v>rankTime:"LOW",</v>
       </c>
       <c r="J7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!K7)</f>
-        <v>rankTime: "Medium",</v>
+        <v>rankTime: "MEDIUM",</v>
       </c>
       <c r="K7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!L7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="L7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!M7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="M7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!N7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="N7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!O7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="O7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!P7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="P7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!Q7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="Q7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!R7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="R7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!S7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="S7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!T7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="T7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!U7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="U7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!V7)</f>
-        <v>rankTime: "High",</v>
+        <v>rankTime: "HIGH",</v>
       </c>
       <c r="V7" t="str">
         <f>CONCATENATE('Document Data'!$A7,'Document Data'!W7)</f>
-        <v>rankTime: "High",</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>rankTime: "HIGH",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
       <c r="A8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!B8)</f>
-        <v>rankCost: "High",</v>
+        <v>rankCost: "HIGH",</v>
       </c>
       <c r="B8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!C8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!D8)</f>
-        <v>rankCost:"Low",</v>
+        <v>rankCost:"LOW",</v>
       </c>
       <c r="D8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!E8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="E8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!F8)</f>
-        <v>rankCost: "High",</v>
+        <v>rankCost: "HIGH",</v>
       </c>
       <c r="F8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!G8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="G8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!H8)</f>
-        <v>rankCost:"Low",</v>
+        <v>rankCost:"LOW",</v>
       </c>
       <c r="H8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!I8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="I8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!J8)</f>
-        <v>rankCost: "High",</v>
+        <v>rankCost: "HIGH",</v>
       </c>
       <c r="J8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!K8)</f>
-        <v>rankCost:"Low",</v>
+        <v>rankCost:"LOW",</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!L8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="L8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!M8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="M8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!N8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="N8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!O8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="O8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!P8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="P8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!Q8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="Q8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!R8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="R8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!S8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="S8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!T8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="T8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!U8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="U8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!V8)</f>
-        <v>rankCost: "Medium",</v>
+        <v>rankCost: "MEDIUM",</v>
       </c>
       <c r="V8" t="str">
         <f>CONCATENATE('Document Data'!$A8,'Document Data'!W8)</f>
-        <v>rankCost: "Medium",</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>rankCost: "MEDIUM",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9" t="str">
         <f>CONCATENATE('Document Data'!$A9,'Document Data'!B9)</f>
         <v>levelQuality:"Bike",</v>
@@ -4988,7 +5326,7 @@
         <v>levelQuality:"Car",</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:46">
       <c r="A10" t="str">
         <f>CONCATENATE('Document Data'!$A10,'Document Data'!B10)</f>
         <v>expectedDate: "01/09/2019",</v>
@@ -5078,7 +5416,7 @@
         <v>expectedDate: "01/09/2019",</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:46">
       <c r="A11" t="str">
         <f>CONCATENATE('Document Data'!$A11,'Document Data'!B11)</f>
         <v>liveDate: "01/09/2019",</v>
@@ -5168,7 +5506,7 @@
         <v>liveDate: "01/09/2019",</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:46">
       <c r="A12" t="str">
         <f>CONCATENATE('Document Data'!$A12,'Document Data'!B12)</f>
         <v>budget: "4000",</v>
@@ -5258,7 +5596,7 @@
         <v>budget: "10000",</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:46">
       <c r="A13" t="str">
         <f>CONCATENATE('Document Data'!$A13,'Document Data'!B13)</f>
         <v>brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",</v>
@@ -5348,7 +5686,7 @@
         <v>brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:46">
       <c r="A14" t="str">
         <f>CONCATENATE('Document Data'!$A14,'Document Data'!B14)</f>
         <v>typeDev:'Responsive Web Development (HTML5/JSON/REST)',</v>
@@ -5438,7 +5776,7 @@
         <v>typeDev:'Database Architecture and Design',</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:46">
       <c r="A15" t="str">
         <f>CONCATENATE('Document Data'!$A15,'Document Data'!B15)</f>
         <v>tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],</v>
@@ -5528,7 +5866,7 @@
         <v>tech:'JavaScript',</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:46">
       <c r="A16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!B16)</f>
         <v>quoteStatus: "OPEN",</v>
@@ -5543,39 +5881,39 @@
       </c>
       <c r="D16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!E16)</f>
-        <v>quoteStatus: "OPEN",</v>
+        <v>quoteStatus: "NEW",</v>
       </c>
       <c r="E16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!F16)</f>
-        <v>quoteStatus: "CLOSED",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="F16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!G16)</f>
-        <v>quoteStatus: "PENDING",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!H16)</f>
-        <v>quoteStatus: "OPEN",</v>
+        <v>quoteStatus: "PENDING",</v>
       </c>
       <c r="H16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!I16)</f>
-        <v>quoteStatus: "CLOSED",</v>
+        <v>quoteStatus: "NEW",</v>
       </c>
       <c r="I16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!J16)</f>
-        <v>quoteStatus: "PENDING",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="J16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!K16)</f>
-        <v>quoteStatus: "OPEN",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!L16)</f>
-        <v>quoteStatus: "CLOSED",</v>
+        <v>quoteStatus: "PENDING",</v>
       </c>
       <c r="L16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!M16)</f>
-        <v>quoteStatus: "PENDING",</v>
+        <v>quoteStatus: "NEW",</v>
       </c>
       <c r="M16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!N16)</f>
@@ -5591,31 +5929,31 @@
       </c>
       <c r="P16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!Q16)</f>
-        <v>quoteStatus: "OPEN",</v>
+        <v>quoteStatus: "NEW",</v>
       </c>
       <c r="Q16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!R16)</f>
-        <v>quoteStatus: "CLOSED",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="R16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!S16)</f>
-        <v>quoteStatus: "PENDING",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
       <c r="S16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!T16)</f>
-        <v>quoteStatus: "OPEN",</v>
+        <v>quoteStatus: "PENDING",</v>
       </c>
       <c r="T16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!U16)</f>
-        <v>quoteStatus: "CLOSED",</v>
+        <v>quoteStatus: "NEW",</v>
       </c>
       <c r="U16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!V16)</f>
-        <v>quoteStatus: "PENDING",</v>
+        <v>quoteStatus: "OPEN",</v>
       </c>
       <c r="V16" t="str">
         <f>CONCATENATE('Document Data'!$A16,'Document Data'!W16)</f>
-        <v>quoteStatus: "OPEN",</v>
+        <v>quoteStatus: "CLOSED",</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -5895,15 +6233,15 @@
       </c>
       <c r="B20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!C20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"100,000",</v>
       </c>
       <c r="C20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!D20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"60000",</v>
       </c>
       <c r="D20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!E20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"70000",</v>
       </c>
       <c r="E20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!F20)</f>
@@ -5911,15 +6249,15 @@
       </c>
       <c r="F20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!G20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"100,000",</v>
       </c>
       <c r="G20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!H20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"60000",</v>
       </c>
       <c r="H20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!I20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"70000",</v>
       </c>
       <c r="I20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!J20)</f>
@@ -5927,15 +6265,15 @@
       </c>
       <c r="J20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!K20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"100,000",</v>
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!L20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"60000",</v>
       </c>
       <c r="L20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!M20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"70000",</v>
       </c>
       <c r="M20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!N20)</f>
@@ -5943,15 +6281,15 @@
       </c>
       <c r="N20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!O20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"100,000",</v>
       </c>
       <c r="O20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!P20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"60000",</v>
       </c>
       <c r="P20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!Q20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"70000",</v>
       </c>
       <c r="Q20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!R20)</f>
@@ -5959,15 +6297,15 @@
       </c>
       <c r="R20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!S20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"100,000",</v>
       </c>
       <c r="S20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!T20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"60000",</v>
       </c>
       <c r="T20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!U20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"70000",</v>
       </c>
       <c r="U20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!V20)</f>
@@ -5975,7 +6313,7 @@
       </c>
       <c r="V20" t="str">
         <f>CONCATENATE('Document Data'!$A20,'Document Data'!W20)</f>
-        <v>quoteCost:"50000",</v>
+        <v>quoteCost:"100,000",</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -6161,91 +6499,91 @@
     <row r="27" spans="1:22" ht="272" customHeight="1">
       <c r="A27" s="13" t="str">
         <f>CONCATENATE(A1,A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12,A13,A14,A15,A16,A17,A18,A19,A20,A21,A22)</f>
-        <v>coll.insert({quoteId:'1',name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:1,name: "Mr. Simpson",email: "ciaran.quinlan@gmail.com",phone: "0868090777",rankQuality: "LOW",rankTime: "MEDIUM",rankCost: "HIGH",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="B27" s="13" t="str">
         <f>CONCATENATE(B1,B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B20,B21,B22)</f>
-        <v>coll.insert({quoteId:'2',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Leo ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:2,name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime:"LOW",rankCost: "MEDIUM",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Leo ryan",quoteCost:"100,000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="C27" s="13" t="str">
         <f t="shared" ref="C27:V27" si="0">CONCATENATE(C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22)</f>
-        <v>coll.insert({quoteId:'3',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Mike ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:3,name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "HIGH",rankTime: "MEDIUM",rankCost:"LOW",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Mike ryan",quoteCost:"60000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="D27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'4',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Mary ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:4,name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "HIGH",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "NEW",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Mary ryan",quoteCost:"70000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="E27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'5',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "this is the detailed brief",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:5,name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality: "LOW",rankTime: "MEDIUM",rankCost: "HIGH",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "this is the detailed brief",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="F27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'6',name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime:"Low",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:6,name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime:"LOW",rankCost: "MEDIUM",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"100,000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="G27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'7',name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "Medium",rankCost:"Low",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:7,name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "HIGH",rankTime: "MEDIUM",rankCost:"LOW",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"60000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="H27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'8',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "High",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:8,name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "HIGH",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "NEW",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"70000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="I27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'9',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime:"Low",rankCost: "High",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "this is the detailed brief",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:9,name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality: "LOW",rankTime:"LOW",rankCost: "HIGH",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "this is the detailed brief",typeDev:'E-Commerce Web Development',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="J27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'10',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality: "Low",rankTime: "Medium",rankCost:"Low",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:10,name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality: "LOW",rankTime: "MEDIUM",rankCost:"LOW",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "4000",brief: "Becoming a fullstack web developer requires you to cover a lot of skills. For beginners it’s often not easy to find the right learning path and to gain quick result. At first sight it might be overwhelming to understand what you need to learn and how everything fits together at the end..",typeDev:'Database Architecture and Design',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"100,000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="K27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'11',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:11,name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "5000",brief: "This post will give you an overview of technologies you may consider to learn for being a fullstack developer in 2019 and beyond. We’ll start to take a look at the foundation and programming languages and then move forward to more advanced topics like frameworks and additional tools..",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"60000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="L27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'12',name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:12,name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "NEW",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"70000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="M27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'13',name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:13,name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="N27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'14',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:14,name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:["Flask", "Django", "NoSql","HTML","CSS","MongoDB","Magento","Python"],quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"100,000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="O27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'15',name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'HTML5',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:15,name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'HTML5',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"60000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="P27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'16',name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'HTML5',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:16,name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'HTML5',quoteStatus: "NEW",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"70000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="Q27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:'17',name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'SQL',quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:17,name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Bespoke Software Platform',tech:'SQL',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="R27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:18name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'Flask',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:18,name: "Mr. Alan Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Other:',tech:'Flask',quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"100,000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="S27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:19name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Django',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:19,name: "Mr. Simpson",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Jumbo Jet",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Responsive Web Development (HTML5/JSON/REST)',tech:'Django',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"60000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="T27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:20name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'NoSQL',quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:20,name: "Mr. Smith",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Space Shuttle",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Native Mobile Application (iOS)',tech:'NoSQL',quoteStatus: "NEW",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"70000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="U27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:21name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'E-Commerce Web Development',tech:'Python',quoteStatus: "PENDING",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:21,name: "Mr. Ross",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Bike",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'E-Commerce Web Development',tech:'Python',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
       <c r="V27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>coll.insert({quoteId:22name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "Medium",rankTime: "High",rankCost: "Medium",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "OPEN",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"50000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
+        <v>coll.insert({quoteId:22,name: "Mr Drudge",email:"random@email.com",phone: "0868090777",rankQuality:  "MEDIUM",rankTime: "HIGH",rankCost: "MEDIUM",levelQuality:"Car",expectedDate: "01/09/2019",liveDate: "01/09/2019",budget: "10000",brief: "This list will provide guidance to find your path through the web development jungle in 2019. Together with a short description of the relevant topics this post contains link to great learning resources so that you can start quickly to expand your skill-set.",typeDev:'Database Architecture and Design',tech:'JavaScript',quoteStatus: "CLOSED",quoteDetails: "send me a quote that will meet my requirements",quoteResponse: "sending the standard response",assignedTo: "Joe ryan",quoteCost:"100,000",quoteNeeds: "It needs this and that and a whole lot more",});</v>
       </c>
     </row>
   </sheetData>
@@ -6293,21 +6631,21 @@
         <v>quoteId:</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D2" s="14" t="str">
         <f>A2</f>
         <v>quote</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F2" t="str">
         <f>LEFT(B2,LEN(B2)-1)</f>
         <v>quoteId</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2)</f>
@@ -6324,21 +6662,21 @@
         <v>name:</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" s="14" t="str">
         <f t="shared" ref="D3:D23" si="0">A3</f>
         <v>quote</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F23" si="1">LEFT(B3,LEN(B3)-1)</f>
         <v>name</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H23" si="2">CONCATENATE(C3,D3,E3,F3,G3)</f>
@@ -6355,21 +6693,21 @@
         <v>email:</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D4" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>email</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
@@ -6386,21 +6724,21 @@
         <v>phone:</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
         <v>phone</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="2"/>
@@ -6417,21 +6755,21 @@
         <v>rankQuality:</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
         <v>rankQuality</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
@@ -6448,21 +6786,21 @@
         <v>rankTime:</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
         <v>rankTime</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
@@ -6479,21 +6817,21 @@
         <v>rankCost:</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
         <v>rankCost</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
@@ -6510,21 +6848,21 @@
         <v>levelQuality:</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
         <v>levelQuality</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="2"/>
@@ -6541,21 +6879,21 @@
         <v>expectedDate:</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
         <v>expectedDate</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="2"/>
@@ -6572,21 +6910,21 @@
         <v>liveDate:</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
         <v>liveDate</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
@@ -6603,21 +6941,21 @@
         <v>budget:</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
         <v>budget</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="2"/>
@@ -6634,21 +6972,21 @@
         <v>brief:</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>brief</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="2"/>
@@ -6665,21 +7003,21 @@
         <v>typeDev:</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
         <v>typeDev</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="2"/>
@@ -6696,21 +7034,21 @@
         <v>tech:</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
         <v>tech</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="2"/>
@@ -6727,21 +7065,21 @@
         <v>quoteStatus:</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
         <v>quoteStatus</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="2"/>
@@ -6758,21 +7096,21 @@
         <v>quoteDetails:</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
         <v>quoteDetails</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="2"/>
@@ -6789,21 +7127,21 @@
         <v>quoteResponse:</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
         <v>quoteResponse</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="2"/>
@@ -6820,21 +7158,21 @@
         <v>assignedTo:</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
         <v>assignedTo</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="2"/>
@@ -6851,21 +7189,21 @@
         <v>quoteCost:</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
         <v>quoteCost</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
@@ -6882,21 +7220,21 @@
         <v>quoteNeeds:</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quote</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
         <v>quoteNeeds</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
@@ -6913,21 +7251,21 @@
         <v>quoteStatus:</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>status</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
         <v>quoteStatus</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="2"/>
@@ -6944,21 +7282,21 @@
         <v>quoteId:</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>quotenumber</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
         <v>quoteId</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="2"/>
@@ -7008,55 +7346,55 @@
   <sheetData>
     <row r="1" spans="1:27" s="15" customFormat="1" ht="16">
       <c r="G1" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J1" s="15" t="str">
         <f>H1</f>
         <v>quote_phone</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>158</v>
-      </c>
       <c r="Q1" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S1" s="15" t="str">
         <f>H1</f>
         <v>quote_phone</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="U1" s="15" t="str">
         <f>M1</f>
         <v>Your Phone Number</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="W1" s="18" t="str">
         <f>CONCATENATE(G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1)</f>
@@ -7086,71 +7424,71 @@
         <v>"quoteId" : request.form.get("quote_id"),</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>229</v>
-      </c>
       <c r="D4" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E4" t="str">
         <f>H4</f>
         <v>quote_id</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" ref="J4:J23" si="0">H4</f>
         <v>quote_id</v>
       </c>
       <c r="K4" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="R4" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S4" s="15" t="str">
         <f t="shared" ref="S4" si="1">H4</f>
         <v>quote_id</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="U4" s="15" t="str">
         <f t="shared" ref="U4" si="2">M4</f>
         <v>Quote Id</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="W4" s="18" t="str">
         <f t="shared" ref="W4:W24" si="3">CONCATENATE(G4,H4,I4,J4,K4,L4,M4,N4,O4,P4,Q4,R4,S4,T4,U4,V4)</f>
@@ -7163,54 +7501,54 @@
         <v>"name" : request.form.get("quote_name"),</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E23" si="4">H5</f>
         <v>quote_name</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_name</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -7228,54 +7566,54 @@
         <v>"email" : request.form.get("quote_email"),</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="4"/>
         <v>quote_email</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_email</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
@@ -7293,54 +7631,54 @@
         <v>"phone" : request.form.get("quote_phone"),</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="4"/>
         <v>quote_phone</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_phone</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M7" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="Q7" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -7358,54 +7696,54 @@
         <v>"rankQuality" : request.form.get("quote_rankquality"),</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="4"/>
         <v>quote_rankquality</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_rankquality</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>159</v>
-      </c>
       <c r="Q8" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -7423,54 +7761,54 @@
         <v>"rankTime" : request.form.get("quote_ranktime"),</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="4"/>
         <v>quote_ranktime</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_ranktime</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -7488,54 +7826,54 @@
         <v>"rankCost" : request.form.get("quote_rankcost"),</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="4"/>
         <v>quote_rankcost</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_rankcost</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
@@ -7553,54 +7891,54 @@
         <v>"levelQuality" : request.form.get("quote_expectedquality"),</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="4"/>
         <v>quote_expectedquality</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_expectedquality</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
@@ -7618,54 +7956,54 @@
         <v>"expectedDate" : request.form.get("quote_expecteddate"),</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="4"/>
         <v>quote_expecteddate</v>
       </c>
       <c r="F12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_expecteddate</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
@@ -7683,54 +8021,54 @@
         <v>"liveDate" : request.form.get("quote_livedate"),</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="4"/>
         <v>quote_livedate</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_livedate</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
@@ -7748,54 +8086,54 @@
         <v>"budget" : request.form.get("quote_budget "),</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">quote_budget </v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J14" s="15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">quote_budget </v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
@@ -7813,54 +8151,54 @@
         <v>"brief" : request.form.get("quote_brief"),</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="4"/>
         <v>quote_brief</v>
       </c>
       <c r="F15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_brief</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M15" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="N15" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="P15" s="19" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
@@ -7878,54 +8216,54 @@
         <v>"typeDev" : request.form.get("quote_typedev"),</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="4"/>
         <v>quote_typedev</v>
       </c>
       <c r="F16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_typedev</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
@@ -7943,54 +8281,54 @@
         <v>"tech" : request.form.get("quote_tech"),</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="4"/>
         <v>quote_tech</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_tech</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
@@ -8008,54 +8346,54 @@
         <v>"quoteStatus" : request.form.get("quote_quotestatus"),</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="4"/>
         <v>quote_quotestatus</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_quotestatus</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
@@ -8073,54 +8411,54 @@
         <v>"quoteDetails" : request.form.get("quote_details"),</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C19" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>245</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="4"/>
         <v>quote_details</v>
       </c>
       <c r="F19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_details</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
@@ -8138,54 +8476,54 @@
         <v>"quoteResponse" : request.form.get("quote_response"),</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="4"/>
         <v>quote_response</v>
       </c>
       <c r="F20" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_response</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
@@ -8203,54 +8541,54 @@
         <v>"assignedTo" : request.form.get("quote_person"),</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="4"/>
         <v>quote_person</v>
       </c>
       <c r="F21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_person</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
@@ -8268,54 +8606,54 @@
         <v>"quoteCost" : request.form.get("quote_cost"),</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="4"/>
         <v>quote_cost</v>
       </c>
       <c r="F22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_cost</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
@@ -8333,54 +8671,54 @@
         <v>"quoteNeeds" : request.form.get("quote_needs"),</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="4"/>
         <v>quote_needs</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>quote_needs</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
